--- a/life/tax2.xlsx
+++ b/life/tax2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740" tabRatio="500" activeTab="9"/>
+    <workbookView windowHeight="16740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tax" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486">
   <si>
     <t>2016base</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>ave</t>
+  </si>
+  <si>
+    <t>njz</t>
   </si>
   <si>
     <t>全额</t>
@@ -1501,16 +1504,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1604,23 +1607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,24 +1646,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,19 +1690,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1735,6 +1714,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,19 +1800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,19 +1836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1866,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,7 +1902,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,79 +1962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,15 +2015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2032,6 +2026,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2051,17 +2060,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,154 +2088,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2247,7 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2256,26 +2259,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2285,42 +2288,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5707,7 +5710,7 @@
   <sheetPr/>
   <dimension ref="B9:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5722,123 +5725,123 @@
   <sheetData>
     <row r="9" ht="23.2" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" ht="53" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" ht="88" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" ht="71" spans="2:4">
       <c r="B13" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" ht="18" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" ht="36" spans="2:4">
       <c r="B16" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" ht="71" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7191,570 +7194,648 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47058823529412" defaultRowHeight="14.8"/>
   <cols>
     <col min="1" max="1" width="8.08088235294118" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.47058823529412" style="36"/>
-    <col min="3" max="3" width="8.47058823529412" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1691176470588" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12.8235294117647" style="36" customWidth="1"/>
-    <col min="6" max="6" width="8.47058823529412" style="36" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.47058823529412" style="36"/>
-    <col min="8" max="8" width="8.47058823529412" style="36" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4705882352941" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.8823529411765" style="36" customWidth="1"/>
-    <col min="11" max="16379" width="8.47058823529412" style="36"/>
+    <col min="2" max="3" width="8.47058823529412" style="36"/>
+    <col min="4" max="4" width="8.47058823529412" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.1691176470588" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.8235294117647" style="36" customWidth="1"/>
+    <col min="7" max="8" width="8.47058823529412" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.47058823529412" style="36"/>
+    <col min="10" max="10" width="8.47058823529412" style="36" customWidth="1"/>
+    <col min="11" max="11" width="12.4705882352941" style="36" customWidth="1"/>
+    <col min="12" max="12" width="11.8823529411765" style="36" customWidth="1"/>
+    <col min="13" max="16381" width="8.47058823529412" style="36"/>
   </cols>
   <sheetData>
     <row r="1" s="36" customFormat="1" ht="14"/>
     <row r="2" s="36" customFormat="1" ht="14"/>
     <row r="3" s="36" customFormat="1" ht="14"/>
-    <row r="4" s="36" customFormat="1" ht="14" spans="4:9">
-      <c r="D4" s="36" t="s">
+    <row r="4" s="36" customFormat="1" ht="14" hidden="1" spans="5:11">
+      <c r="E4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="37">
+      <c r="F4" s="37">
         <v>75000</v>
       </c>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" s="36" customFormat="1" ht="14" spans="4:9">
-      <c r="D5" s="36" t="s">
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" s="36" customFormat="1" ht="14" hidden="1" spans="5:11">
+      <c r="E5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="37">
+      <c r="F5" s="37">
         <v>4000</v>
       </c>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" s="36" customFormat="1" ht="14" spans="4:5">
-      <c r="D6" s="36" t="s">
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" s="36" customFormat="1" ht="14" hidden="1" spans="5:6">
+      <c r="E6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="36">
+      <c r="F6" s="36">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" s="36" customFormat="1" ht="14" spans="4:5">
-      <c r="D7" s="36" t="s">
+    <row r="7" s="36" customFormat="1" ht="14" hidden="1" spans="5:6">
+      <c r="E7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="36">
+      <c r="F7" s="36">
         <v>3430</v>
       </c>
     </row>
     <row r="8" s="36" customFormat="1" ht="14"/>
     <row r="9" s="36" customFormat="1" ht="14"/>
-    <row r="10" s="36" customFormat="1" ht="14" spans="3:10">
-      <c r="C10" s="36" t="s">
+    <row r="10" s="36" customFormat="1" ht="14" spans="4:12">
+      <c r="D10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="E10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="K10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="L10" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" s="36" customFormat="1" ht="14" hidden="1" spans="3:6">
-      <c r="C11" s="36">
-        <f>E4</f>
+    <row r="11" s="36" customFormat="1" ht="14" spans="4:7">
+      <c r="D11" s="36">
+        <f>F4</f>
         <v>75000</v>
       </c>
-      <c r="D11" s="36">
-        <f>E7</f>
+      <c r="E11" s="36">
+        <f>F7</f>
         <v>3430</v>
       </c>
-      <c r="E11" s="36">
-        <f>E5</f>
+      <c r="F11" s="36">
+        <f>F5</f>
         <v>4000</v>
       </c>
-      <c r="F11" s="36">
-        <f>E6</f>
+      <c r="G11" s="36">
+        <f>F6</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="12" s="36" customFormat="1" ht="15.2" spans="2:10">
+    <row r="12" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="36">
-        <f>E4</f>
+      <c r="D12" s="36">
+        <f>F4+C12</f>
         <v>75000</v>
       </c>
-      <c r="D12" s="36">
-        <f>E7</f>
+      <c r="E12" s="36">
+        <f>F7</f>
         <v>3430</v>
       </c>
-      <c r="E12" s="36">
-        <f>E5</f>
+      <c r="F12" s="36">
+        <f>F5</f>
         <v>4000</v>
       </c>
-      <c r="F12" s="36">
-        <f>F11</f>
+      <c r="G12" s="36">
+        <f>G11</f>
         <v>5000</v>
       </c>
-      <c r="G12" s="36">
-        <f t="shared" ref="G12:G23" si="0">C12-D12-E12-F12</f>
+      <c r="I12" s="36">
+        <f>D12-E12-F12-G12+H12</f>
         <v>62570</v>
       </c>
-      <c r="H12" s="38">
-        <f>ROUND(MAX(G12*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+      <c r="J12" s="38">
+        <f>ROUND(MAX(I12*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
         <v>3737</v>
       </c>
-      <c r="I12" s="36">
-        <f t="shared" ref="I12:I23" si="1">H12-H11</f>
+      <c r="K12" s="36">
+        <f t="shared" ref="K12:K23" si="0">J12-J11</f>
         <v>3737</v>
       </c>
-      <c r="J12" s="36">
-        <f t="shared" ref="J12:J23" si="2">$E$4-$E$7-I12</f>
+      <c r="L12" s="36">
+        <f>$F$4-$F$7-K12+H12+C12</f>
         <v>67833</v>
       </c>
     </row>
-    <row r="13" s="36" customFormat="1" ht="15.2" spans="2:10">
+    <row r="13" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="36">
-        <f t="shared" ref="C13:F13" si="3">C12+C$11</f>
+      <c r="D13" s="36">
+        <f>D12+D$11+C13</f>
         <v>150000</v>
       </c>
-      <c r="D13" s="36">
-        <f t="shared" si="3"/>
+      <c r="E13" s="36">
+        <f t="shared" ref="D13:G13" si="1">E12+E$11</f>
         <v>6860</v>
       </c>
-      <c r="E13" s="36">
-        <f t="shared" si="3"/>
+      <c r="F13" s="36">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="F13" s="36">
-        <f t="shared" si="3"/>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G13" s="36">
+      <c r="I13" s="36">
+        <f t="shared" ref="I13:I23" si="2">D13-E13-F13-G13+H13</f>
+        <v>125140</v>
+      </c>
+      <c r="J13" s="38">
+        <f>ROUND(MAX(I13*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>9994</v>
+      </c>
+      <c r="K13" s="36">
         <f t="shared" si="0"/>
-        <v>125140</v>
-      </c>
-      <c r="H13" s="38">
-        <f>ROUND(MAX(G13*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>9994</v>
-      </c>
-      <c r="I13" s="36">
-        <f t="shared" si="1"/>
         <v>6257</v>
       </c>
-      <c r="J13" s="36">
-        <f t="shared" si="2"/>
+      <c r="L13" s="36">
+        <f t="shared" ref="L13:L23" si="3">$F$4-$F$7-K13+H13+C13</f>
         <v>65313</v>
       </c>
     </row>
-    <row r="14" s="36" customFormat="1" ht="15.2" spans="2:10">
+    <row r="14" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="36">
-        <f t="shared" ref="C14:F14" si="4">C13+C$11</f>
+      <c r="D14" s="36">
+        <f t="shared" ref="D14:D23" si="4">D13+D$11+C14</f>
         <v>225000</v>
       </c>
-      <c r="D14" s="36">
-        <f t="shared" si="4"/>
+      <c r="E14" s="36">
+        <f t="shared" ref="D14:G14" si="5">E13+E$11</f>
         <v>10290</v>
       </c>
-      <c r="E14" s="36">
-        <f t="shared" si="4"/>
+      <c r="F14" s="36">
+        <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="F14" s="36">
-        <f t="shared" si="4"/>
+      <c r="G14" s="36">
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="G14" s="36">
+      <c r="I14" s="36">
+        <f t="shared" si="2"/>
+        <v>187710</v>
+      </c>
+      <c r="J14" s="38">
+        <f>ROUND(MAX(I14*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>20622</v>
+      </c>
+      <c r="K14" s="36">
         <f t="shared" si="0"/>
-        <v>187710</v>
-      </c>
-      <c r="H14" s="38">
-        <f>ROUND(MAX(G14*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>20622</v>
-      </c>
-      <c r="I14" s="36">
-        <f t="shared" si="1"/>
         <v>10628</v>
       </c>
-      <c r="J14" s="36">
-        <f t="shared" si="2"/>
+      <c r="L14" s="36">
+        <f t="shared" si="3"/>
         <v>60942</v>
       </c>
     </row>
-    <row r="15" s="36" customFormat="1" ht="15.2" spans="2:10">
+    <row r="15" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B15" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="36">
-        <f t="shared" ref="C15:F15" si="5">C14+C$11</f>
-        <v>300000</v>
+        <v>7500</v>
       </c>
       <c r="D15" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>307500</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" ref="D15:G15" si="6">E14+E$11</f>
         <v>13720</v>
       </c>
-      <c r="E15" s="36">
-        <f t="shared" si="5"/>
+      <c r="F15" s="36">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="F15" s="36">
-        <f t="shared" si="5"/>
+      <c r="G15" s="36">
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="G15" s="36">
+      <c r="I15" s="36">
+        <f t="shared" si="2"/>
+        <v>257780</v>
+      </c>
+      <c r="J15" s="38">
+        <f>ROUND(MAX(I15*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>34636</v>
+      </c>
+      <c r="K15" s="36">
         <f t="shared" si="0"/>
-        <v>250280</v>
-      </c>
-      <c r="H15" s="38">
-        <f>ROUND(MAX(G15*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>33136</v>
-      </c>
-      <c r="I15" s="36">
-        <f t="shared" si="1"/>
-        <v>12514</v>
-      </c>
-      <c r="J15" s="36">
-        <f t="shared" si="2"/>
-        <v>59056</v>
-      </c>
-    </row>
-    <row r="16" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>14014</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="3"/>
+        <v>65056</v>
+      </c>
+    </row>
+    <row r="16" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B16" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="36">
-        <f t="shared" ref="C16:F16" si="6">C15+C$11</f>
-        <v>375000</v>
+        <v>7500</v>
       </c>
       <c r="D16" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" ref="D16:G16" si="7">E15+E$11</f>
         <v>17150</v>
       </c>
-      <c r="E16" s="36">
-        <f t="shared" si="6"/>
+      <c r="F16" s="36">
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="F16" s="36">
-        <f t="shared" si="6"/>
+      <c r="G16" s="36">
+        <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="G16" s="36">
+      <c r="I16" s="36">
+        <f t="shared" si="2"/>
+        <v>327850</v>
+      </c>
+      <c r="J16" s="38">
+        <f>ROUND(MAX(I16*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>50042.5</v>
+      </c>
+      <c r="K16" s="36">
         <f t="shared" si="0"/>
-        <v>312850</v>
-      </c>
-      <c r="H16" s="38">
-        <f>ROUND(MAX(G16*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>46292.5</v>
-      </c>
-      <c r="I16" s="36">
-        <f t="shared" si="1"/>
-        <v>13156.5</v>
-      </c>
-      <c r="J16" s="36">
-        <f t="shared" si="2"/>
-        <v>58413.5</v>
-      </c>
-    </row>
-    <row r="17" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>15406.5</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="3"/>
+        <v>63663.5</v>
+      </c>
+    </row>
+    <row r="17" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B17" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="36">
-        <f t="shared" ref="C17:F17" si="7">C16+C$11</f>
-        <v>450000</v>
+        <v>7500</v>
       </c>
       <c r="D17" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>472500</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" ref="D17:G17" si="8">E16+E$11</f>
         <v>20580</v>
       </c>
-      <c r="E17" s="36">
-        <f t="shared" si="7"/>
+      <c r="F17" s="36">
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
-      <c r="F17" s="36">
-        <f t="shared" si="7"/>
+      <c r="G17" s="36">
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
-      <c r="G17" s="36">
+      <c r="I17" s="36">
+        <f t="shared" si="2"/>
+        <v>397920</v>
+      </c>
+      <c r="J17" s="38">
+        <f>ROUND(MAX(I17*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>67560</v>
+      </c>
+      <c r="K17" s="36">
         <f t="shared" si="0"/>
-        <v>375420</v>
-      </c>
-      <c r="H17" s="38">
-        <f>ROUND(MAX(G17*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>61935</v>
-      </c>
-      <c r="I17" s="36">
-        <f t="shared" si="1"/>
-        <v>15642.5</v>
-      </c>
-      <c r="J17" s="36">
-        <f t="shared" si="2"/>
-        <v>55927.5</v>
-      </c>
-    </row>
-    <row r="18" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>17517.5</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="3"/>
+        <v>61552.5</v>
+      </c>
+    </row>
+    <row r="18" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B18" s="36" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="36">
-        <f t="shared" ref="C18:F18" si="8">C17+C$11</f>
-        <v>525000</v>
+        <v>7500</v>
       </c>
       <c r="D18" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
+        <v>555000</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" ref="D18:G18" si="9">E17+E$11</f>
         <v>24010</v>
       </c>
-      <c r="E18" s="36">
-        <f t="shared" si="8"/>
+      <c r="F18" s="36">
+        <f t="shared" si="9"/>
         <v>28000</v>
       </c>
-      <c r="F18" s="36">
-        <f t="shared" si="8"/>
+      <c r="G18" s="36">
+        <f t="shared" si="9"/>
         <v>35000</v>
       </c>
-      <c r="G18" s="36">
+      <c r="I18" s="36">
+        <f t="shared" si="2"/>
+        <v>467990</v>
+      </c>
+      <c r="J18" s="38">
+        <f>ROUND(MAX(I18*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>87477</v>
+      </c>
+      <c r="K18" s="36">
         <f t="shared" si="0"/>
-        <v>437990</v>
-      </c>
-      <c r="H18" s="38">
-        <f>ROUND(MAX(G18*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>78477</v>
-      </c>
-      <c r="I18" s="36">
-        <f t="shared" si="1"/>
-        <v>16542</v>
-      </c>
-      <c r="J18" s="36">
-        <f t="shared" si="2"/>
-        <v>55028</v>
-      </c>
-    </row>
-    <row r="19" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>19917</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="3"/>
+        <v>59153</v>
+      </c>
+    </row>
+    <row r="19" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B19" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="36">
-        <f t="shared" ref="C19:F19" si="9">C18+C$11</f>
-        <v>600000</v>
+        <v>7500</v>
       </c>
       <c r="D19" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
+        <v>637500</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" ref="D19:G19" si="10">E18+E$11</f>
         <v>27440</v>
       </c>
-      <c r="E19" s="36">
-        <f t="shared" si="9"/>
+      <c r="F19" s="36">
+        <f t="shared" si="10"/>
         <v>32000</v>
       </c>
-      <c r="F19" s="36">
-        <f t="shared" si="9"/>
+      <c r="G19" s="36">
+        <f t="shared" si="10"/>
         <v>40000</v>
       </c>
-      <c r="G19" s="36">
+      <c r="I19" s="36">
+        <f t="shared" si="2"/>
+        <v>538060</v>
+      </c>
+      <c r="J19" s="38">
+        <f>ROUND(MAX(I19*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>108498</v>
+      </c>
+      <c r="K19" s="36">
         <f t="shared" si="0"/>
-        <v>500560</v>
-      </c>
-      <c r="H19" s="38">
-        <f>ROUND(MAX(G19*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>97248</v>
-      </c>
-      <c r="I19" s="36">
-        <f t="shared" si="1"/>
-        <v>18771</v>
-      </c>
-      <c r="J19" s="36">
-        <f t="shared" si="2"/>
-        <v>52799</v>
-      </c>
-    </row>
-    <row r="20" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>21021</v>
+      </c>
+      <c r="L19" s="36">
+        <f t="shared" si="3"/>
+        <v>58049</v>
+      </c>
+    </row>
+    <row r="20" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B20" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="36">
-        <f t="shared" ref="C20:F20" si="10">C19+C$11</f>
-        <v>675000</v>
+        <v>7500</v>
       </c>
       <c r="D20" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
+        <v>720000</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" ref="D20:G20" si="11">E19+E$11</f>
         <v>30870</v>
       </c>
-      <c r="E20" s="36">
-        <f t="shared" si="10"/>
+      <c r="F20" s="36">
+        <f t="shared" si="11"/>
         <v>36000</v>
       </c>
-      <c r="F20" s="36">
-        <f t="shared" si="10"/>
+      <c r="G20" s="36">
+        <f t="shared" si="11"/>
         <v>45000</v>
       </c>
-      <c r="G20" s="36">
+      <c r="I20" s="36">
+        <f t="shared" si="2"/>
+        <v>608130</v>
+      </c>
+      <c r="J20" s="38">
+        <f>ROUND(MAX(I20*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>129519</v>
+      </c>
+      <c r="K20" s="36">
         <f t="shared" si="0"/>
-        <v>563130</v>
-      </c>
-      <c r="H20" s="38">
-        <f>ROUND(MAX(G20*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>116019</v>
-      </c>
-      <c r="I20" s="36">
-        <f t="shared" si="1"/>
-        <v>18771</v>
-      </c>
-      <c r="J20" s="36">
-        <f t="shared" si="2"/>
-        <v>52799</v>
-      </c>
-    </row>
-    <row r="21" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>21021</v>
+      </c>
+      <c r="L20" s="36">
+        <f t="shared" si="3"/>
+        <v>58049</v>
+      </c>
+    </row>
+    <row r="21" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B21" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="36">
-        <f t="shared" ref="C21:F21" si="11">C20+C$11</f>
-        <v>750000</v>
+        <v>7500</v>
       </c>
       <c r="D21" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>802500</v>
+      </c>
+      <c r="E21" s="36">
+        <f t="shared" ref="D21:G21" si="12">E20+E$11</f>
         <v>34300</v>
       </c>
-      <c r="E21" s="36">
-        <f t="shared" si="11"/>
+      <c r="F21" s="36">
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
-      <c r="F21" s="36">
-        <f t="shared" si="11"/>
+      <c r="G21" s="36">
+        <f t="shared" si="12"/>
         <v>50000</v>
       </c>
-      <c r="G21" s="36">
+      <c r="I21" s="36">
+        <f t="shared" si="2"/>
+        <v>678200</v>
+      </c>
+      <c r="J21" s="38">
+        <f>ROUND(MAX(I21*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>151450</v>
+      </c>
+      <c r="K21" s="36">
         <f t="shared" si="0"/>
-        <v>625700</v>
-      </c>
-      <c r="H21" s="38">
-        <f>ROUND(MAX(G21*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>134790</v>
-      </c>
-      <c r="I21" s="36">
-        <f t="shared" si="1"/>
-        <v>18771</v>
-      </c>
-      <c r="J21" s="36">
-        <f t="shared" si="2"/>
-        <v>52799</v>
-      </c>
-    </row>
-    <row r="22" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>21931</v>
+      </c>
+      <c r="L21" s="36">
+        <f t="shared" si="3"/>
+        <v>57139</v>
+      </c>
+    </row>
+    <row r="22" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B22" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="36">
-        <f t="shared" ref="C22:F22" si="12">C21+C$11</f>
-        <v>825000</v>
+        <v>7500</v>
       </c>
       <c r="D22" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
+        <v>885000</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" ref="D22:G22" si="13">E21+E$11</f>
         <v>37730</v>
       </c>
-      <c r="E22" s="36">
-        <f t="shared" si="12"/>
+      <c r="F22" s="36">
+        <f t="shared" si="13"/>
         <v>44000</v>
       </c>
-      <c r="F22" s="36">
-        <f t="shared" si="12"/>
+      <c r="G22" s="36">
+        <f t="shared" si="13"/>
         <v>55000</v>
       </c>
-      <c r="G22" s="36">
+      <c r="I22" s="36">
+        <f t="shared" si="2"/>
+        <v>748270</v>
+      </c>
+      <c r="J22" s="38">
+        <f>ROUND(MAX(I22*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>175974.5</v>
+      </c>
+      <c r="K22" s="36">
         <f t="shared" si="0"/>
-        <v>688270</v>
-      </c>
-      <c r="H22" s="38">
-        <f>ROUND(MAX(G22*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>154974.5</v>
-      </c>
-      <c r="I22" s="36">
-        <f t="shared" si="1"/>
-        <v>20184.5</v>
-      </c>
-      <c r="J22" s="36">
-        <f t="shared" si="2"/>
-        <v>51385.5</v>
-      </c>
-    </row>
-    <row r="23" s="36" customFormat="1" ht="15.2" spans="2:10">
+        <v>24524.5</v>
+      </c>
+      <c r="L22" s="36">
+        <f t="shared" si="3"/>
+        <v>54545.5</v>
+      </c>
+    </row>
+    <row r="23" s="36" customFormat="1" ht="15.2" spans="2:12">
       <c r="B23" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="36">
-        <f t="shared" ref="C23:F23" si="13">C22+C$11</f>
-        <v>900000</v>
+        <v>7500</v>
       </c>
       <c r="D23" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
+        <v>967500</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" ref="D23:G23" si="14">E22+E$11</f>
         <v>41160</v>
       </c>
-      <c r="E23" s="36">
-        <f t="shared" si="13"/>
+      <c r="F23" s="36">
+        <f t="shared" si="14"/>
         <v>48000</v>
       </c>
-      <c r="F23" s="36">
-        <f t="shared" si="13"/>
+      <c r="G23" s="36">
+        <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="G23" s="36">
+      <c r="I23" s="36">
+        <f t="shared" si="2"/>
+        <v>818340</v>
+      </c>
+      <c r="J23" s="38">
+        <f>ROUND(MAX(I23*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>200499</v>
+      </c>
+      <c r="K23" s="36">
         <f t="shared" si="0"/>
-        <v>750840</v>
-      </c>
-      <c r="H23" s="38">
-        <f>ROUND(MAX(G23*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>176874</v>
-      </c>
-      <c r="I23" s="36">
-        <f t="shared" si="1"/>
-        <v>21899.5</v>
-      </c>
-      <c r="J23" s="36">
-        <f t="shared" si="2"/>
-        <v>49670.5</v>
-      </c>
-    </row>
-    <row r="24" s="36" customFormat="1" ht="14" spans="9:12">
-      <c r="I24" s="36" t="s">
+        <v>24524.5</v>
+      </c>
+      <c r="L23" s="36">
+        <f t="shared" si="3"/>
+        <v>54545.5</v>
+      </c>
+    </row>
+    <row r="24" s="36" customFormat="1" ht="14" spans="11:14">
+      <c r="K24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="36">
-        <f>SUM(J12:J23)</f>
+      <c r="L24" s="36">
+        <f>SUM(L12:L23)</f>
+        <v>725841</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="36">
+        <f>L24/12</f>
+        <v>60486.75</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="36">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12">
+      <c r="K26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="36">
+        <f>82500*2*0.8</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12">
+      <c r="K27" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="36">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12">
+      <c r="K28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="36">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="36">
+        <v>75000</v>
+      </c>
+      <c r="I35" s="36">
+        <f>F35*14</f>
+        <v>1050000</v>
+      </c>
+      <c r="L35" s="36">
         <v>681966</v>
       </c>
-      <c r="K24" s="36">
+    </row>
+    <row r="36" spans="9:12">
+      <c r="I36" s="36">
         <v>120000</v>
       </c>
-      <c r="L24" s="36">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10">
-      <c r="I25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="36">
-        <f>J24/12</f>
-        <v>56830.5</v>
+      <c r="L36" s="36">
+        <f>L35-L24</f>
+        <v>-43875</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="36">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -9128,45 +9209,45 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>72</v>
-      </c>
       <c r="K2" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>61</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="34">
         <f>B7-B$6</f>
@@ -9199,16 +9280,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="34">
         <f>E3-B$6</f>
@@ -9237,17 +9318,17 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="28">
         <f>4.9%</f>
         <v>0.049</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="34">
         <f>E4-B$6</f>
@@ -9282,17 +9363,17 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="26">
         <f>B7/(B4*12)</f>
         <v>4833.33333333333</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="34">
         <f>E5-B$6</f>
@@ -9327,16 +9408,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="26">
         <v>1450000</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="34">
         <f>E6-B$6</f>
@@ -9371,10 +9452,10 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="34">
         <f>E7-B$6</f>
@@ -9403,10 +9484,10 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="35">
         <f>E8-B$6-H9</f>
@@ -9436,10 +9517,10 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="34">
         <f t="shared" ref="E10:E73" si="5">E9-B$6-H10</f>
@@ -9468,10 +9549,10 @@
     </row>
     <row r="11" spans="3:11">
       <c r="C11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="5"/>
@@ -9500,10 +9581,10 @@
     </row>
     <row r="12" spans="3:11">
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="5"/>
@@ -9532,10 +9613,10 @@
     </row>
     <row r="13" spans="3:11">
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="5"/>
@@ -9564,10 +9645,10 @@
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="5"/>
@@ -9596,10 +9677,10 @@
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="5"/>
@@ -9628,10 +9709,10 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="5"/>
@@ -9660,10 +9741,10 @@
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="5"/>
@@ -9692,10 +9773,10 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="5"/>
@@ -9724,10 +9805,10 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="5"/>
@@ -9756,10 +9837,10 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="5"/>
@@ -9788,10 +9869,10 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="5"/>
@@ -9820,10 +9901,10 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="5"/>
@@ -9852,10 +9933,10 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="5"/>
@@ -9884,10 +9965,10 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="26">
         <f t="shared" si="5"/>
@@ -9916,10 +9997,10 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" s="26">
         <f t="shared" si="5"/>
@@ -9948,10 +10029,10 @@
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="26">
         <f t="shared" si="5"/>
@@ -9980,10 +10061,10 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="26">
         <f t="shared" si="5"/>
@@ -10012,10 +10093,10 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26">
         <f t="shared" si="5"/>
@@ -10044,10 +10125,10 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="26">
         <f t="shared" si="5"/>
@@ -10076,10 +10157,10 @@
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="26">
         <f t="shared" si="5"/>
@@ -10108,10 +10189,10 @@
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="26">
         <f t="shared" si="5"/>
@@ -10140,10 +10221,10 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="26">
         <f t="shared" si="5"/>
@@ -10172,10 +10253,10 @@
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E33" s="26">
         <f t="shared" si="5"/>
@@ -10204,10 +10285,10 @@
     </row>
     <row r="34" spans="3:11">
       <c r="C34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" s="26">
         <f t="shared" si="5"/>
@@ -10236,10 +10317,10 @@
     </row>
     <row r="35" spans="3:11">
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E35" s="26">
         <f t="shared" si="5"/>
@@ -10268,10 +10349,10 @@
     </row>
     <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E36" s="26">
         <f t="shared" si="5"/>
@@ -10300,10 +10381,10 @@
     </row>
     <row r="37" spans="3:11">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" s="26">
         <f t="shared" si="5"/>
@@ -10332,10 +10413,10 @@
     </row>
     <row r="38" spans="3:11">
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" s="26">
         <f t="shared" si="5"/>
@@ -10364,10 +10445,10 @@
     </row>
     <row r="39" spans="3:11">
       <c r="C39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="26">
         <f t="shared" si="5"/>
@@ -10396,10 +10477,10 @@
     </row>
     <row r="40" spans="3:11">
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40" s="26">
         <f t="shared" si="5"/>
@@ -10428,10 +10509,10 @@
     </row>
     <row r="41" spans="3:11">
       <c r="C41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E41" s="26">
         <f t="shared" si="5"/>
@@ -10460,10 +10541,10 @@
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" s="26">
         <f t="shared" si="5"/>
@@ -10492,10 +10573,10 @@
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="5"/>
@@ -10524,10 +10605,10 @@
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E44" s="26">
         <f t="shared" si="5"/>
@@ -10556,10 +10637,10 @@
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E45" s="26">
         <f t="shared" si="5"/>
@@ -10588,10 +10669,10 @@
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" s="26">
         <f t="shared" si="5"/>
@@ -10620,10 +10701,10 @@
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="5"/>
@@ -10652,10 +10733,10 @@
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" s="26">
         <f t="shared" si="5"/>
@@ -10684,10 +10765,10 @@
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E49" s="26">
         <f t="shared" si="5"/>
@@ -10716,10 +10797,10 @@
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E50" s="26">
         <f t="shared" si="5"/>
@@ -10748,10 +10829,10 @@
     </row>
     <row r="51" spans="3:11">
       <c r="C51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E51" s="26">
         <f t="shared" si="5"/>
@@ -10780,10 +10861,10 @@
     </row>
     <row r="52" spans="3:11">
       <c r="C52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" s="26">
         <f t="shared" si="5"/>
@@ -10812,10 +10893,10 @@
     </row>
     <row r="53" spans="3:11">
       <c r="C53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E53" s="26">
         <f t="shared" si="5"/>
@@ -10844,10 +10925,10 @@
     </row>
     <row r="54" spans="3:11">
       <c r="C54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="5"/>
@@ -10876,10 +10957,10 @@
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E55" s="26">
         <f t="shared" si="5"/>
@@ -10908,10 +10989,10 @@
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E56" s="26">
         <f t="shared" si="5"/>
@@ -10940,10 +11021,10 @@
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" s="26">
         <f t="shared" si="5"/>
@@ -10972,10 +11053,10 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E58" s="26">
         <f t="shared" si="5"/>
@@ -11004,10 +11085,10 @@
     </row>
     <row r="59" spans="3:11">
       <c r="C59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E59" s="26">
         <f t="shared" si="5"/>
@@ -11036,10 +11117,10 @@
     </row>
     <row r="60" spans="3:11">
       <c r="C60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="5"/>
@@ -11068,10 +11149,10 @@
     </row>
     <row r="61" spans="3:11">
       <c r="C61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E61" s="26">
         <f t="shared" si="5"/>
@@ -11100,10 +11181,10 @@
     </row>
     <row r="62" spans="3:11">
       <c r="C62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E62" s="26">
         <f t="shared" si="5"/>
@@ -11132,10 +11213,10 @@
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E63" s="26">
         <f t="shared" si="5"/>
@@ -11164,10 +11245,10 @@
     </row>
     <row r="64" spans="3:11">
       <c r="C64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="26">
         <f t="shared" si="5"/>
@@ -11196,10 +11277,10 @@
     </row>
     <row r="65" spans="3:11">
       <c r="C65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E65" s="26">
         <f t="shared" si="5"/>
@@ -11228,10 +11309,10 @@
     </row>
     <row r="66" spans="3:11">
       <c r="C66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E66" s="26">
         <f t="shared" si="5"/>
@@ -11260,10 +11341,10 @@
     </row>
     <row r="67" spans="3:11">
       <c r="C67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="5"/>
@@ -11292,10 +11373,10 @@
     </row>
     <row r="68" spans="3:11">
       <c r="C68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E68" s="26">
         <f t="shared" si="5"/>
@@ -11324,10 +11405,10 @@
     </row>
     <row r="69" spans="3:11">
       <c r="C69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E69" s="26">
         <f t="shared" si="5"/>
@@ -11356,10 +11437,10 @@
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="5"/>
@@ -11388,10 +11469,10 @@
     </row>
     <row r="71" spans="3:11">
       <c r="C71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="5"/>
@@ -11420,7 +11501,7 @@
     </row>
     <row r="72" spans="3:11">
       <c r="C72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E72" s="26">
         <f t="shared" si="5"/>
@@ -11449,7 +11530,7 @@
     </row>
     <row r="73" spans="3:11">
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" s="26">
         <f t="shared" si="5"/>
@@ -11478,7 +11559,7 @@
     </row>
     <row r="74" spans="3:11">
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E74" s="26">
         <f t="shared" ref="E74:E137" si="11">E73-B$6-H74</f>
@@ -11507,7 +11588,7 @@
     </row>
     <row r="75" spans="3:11">
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E75" s="26">
         <f t="shared" si="11"/>
@@ -11536,7 +11617,7 @@
     </row>
     <row r="76" spans="3:11">
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E76" s="26">
         <f t="shared" si="11"/>
@@ -11565,7 +11646,7 @@
     </row>
     <row r="77" spans="3:11">
       <c r="C77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E77" s="26">
         <f t="shared" si="11"/>
@@ -11594,7 +11675,7 @@
     </row>
     <row r="78" spans="3:11">
       <c r="C78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E78" s="26">
         <f t="shared" si="11"/>
@@ -11623,7 +11704,7 @@
     </row>
     <row r="79" spans="3:11">
       <c r="C79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E79" s="26">
         <f t="shared" si="11"/>
@@ -11652,7 +11733,7 @@
     </row>
     <row r="80" spans="3:11">
       <c r="C80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E80" s="26">
         <f t="shared" si="11"/>
@@ -11681,7 +11762,7 @@
     </row>
     <row r="81" spans="3:11">
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E81" s="26">
         <f t="shared" si="11"/>
@@ -11710,7 +11791,7 @@
     </row>
     <row r="82" spans="3:11">
       <c r="C82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E82" s="26">
         <f t="shared" si="11"/>
@@ -11739,10 +11820,10 @@
     </row>
     <row r="83" spans="3:11">
       <c r="C83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E83" s="26">
         <f t="shared" si="11"/>
@@ -11771,7 +11852,7 @@
     </row>
     <row r="84" spans="3:11">
       <c r="C84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E84" s="26">
         <f t="shared" si="11"/>
@@ -11800,7 +11881,7 @@
     </row>
     <row r="85" spans="3:11">
       <c r="C85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E85" s="26">
         <f t="shared" si="11"/>
@@ -11829,7 +11910,7 @@
     </row>
     <row r="86" spans="3:11">
       <c r="C86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E86" s="26">
         <f t="shared" si="11"/>
@@ -11858,7 +11939,7 @@
     </row>
     <row r="87" spans="3:11">
       <c r="C87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" s="26">
         <f t="shared" si="11"/>
@@ -11887,7 +11968,7 @@
     </row>
     <row r="88" spans="3:11">
       <c r="C88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E88" s="26">
         <f t="shared" si="11"/>
@@ -11916,7 +11997,7 @@
     </row>
     <row r="89" spans="3:11">
       <c r="C89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E89" s="26">
         <f t="shared" si="11"/>
@@ -11945,7 +12026,7 @@
     </row>
     <row r="90" spans="3:11">
       <c r="C90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E90" s="26">
         <f t="shared" si="11"/>
@@ -11974,7 +12055,7 @@
     </row>
     <row r="91" spans="3:11">
       <c r="C91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" s="26">
         <f t="shared" si="11"/>
@@ -12003,7 +12084,7 @@
     </row>
     <row r="92" spans="3:11">
       <c r="C92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E92" s="26">
         <f t="shared" si="11"/>
@@ -12032,7 +12113,7 @@
     </row>
     <row r="93" spans="3:11">
       <c r="C93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E93" s="26">
         <f t="shared" si="11"/>
@@ -12061,7 +12142,7 @@
     </row>
     <row r="94" spans="3:11">
       <c r="C94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" s="26">
         <f t="shared" si="11"/>
@@ -12090,10 +12171,10 @@
     </row>
     <row r="95" spans="3:11">
       <c r="C95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E95" s="26">
         <f t="shared" si="11"/>
@@ -12122,7 +12203,7 @@
     </row>
     <row r="96" spans="3:11">
       <c r="C96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E96" s="26">
         <f t="shared" si="11"/>
@@ -12151,7 +12232,7 @@
     </row>
     <row r="97" spans="3:11">
       <c r="C97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E97" s="26">
         <f t="shared" si="11"/>
@@ -12180,7 +12261,7 @@
     </row>
     <row r="98" spans="3:11">
       <c r="C98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E98" s="26">
         <f t="shared" si="11"/>
@@ -12209,7 +12290,7 @@
     </row>
     <row r="99" spans="3:11">
       <c r="C99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E99" s="26">
         <f t="shared" si="11"/>
@@ -12238,7 +12319,7 @@
     </row>
     <row r="100" spans="3:11">
       <c r="C100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E100" s="26">
         <f t="shared" si="11"/>
@@ -12267,7 +12348,7 @@
     </row>
     <row r="101" spans="3:11">
       <c r="C101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E101" s="26">
         <f t="shared" si="11"/>
@@ -12296,7 +12377,7 @@
     </row>
     <row r="102" spans="3:11">
       <c r="C102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E102" s="26">
         <f t="shared" si="11"/>
@@ -12325,7 +12406,7 @@
     </row>
     <row r="103" spans="3:11">
       <c r="C103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E103" s="26">
         <f t="shared" si="11"/>
@@ -12354,7 +12435,7 @@
     </row>
     <row r="104" spans="3:11">
       <c r="C104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E104" s="26">
         <f t="shared" si="11"/>
@@ -12383,7 +12464,7 @@
     </row>
     <row r="105" spans="3:11">
       <c r="C105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E105" s="26">
         <f t="shared" si="11"/>
@@ -12412,7 +12493,7 @@
     </row>
     <row r="106" spans="3:11">
       <c r="C106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E106" s="26">
         <f t="shared" si="11"/>
@@ -12441,10 +12522,10 @@
     </row>
     <row r="107" spans="3:11">
       <c r="C107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E107" s="26">
         <f t="shared" si="11"/>
@@ -12473,7 +12554,7 @@
     </row>
     <row r="108" spans="3:11">
       <c r="C108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E108" s="26">
         <f t="shared" si="11"/>
@@ -12502,7 +12583,7 @@
     </row>
     <row r="109" spans="3:11">
       <c r="C109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E109" s="26">
         <f t="shared" si="11"/>
@@ -12531,7 +12612,7 @@
     </row>
     <row r="110" spans="3:11">
       <c r="C110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E110" s="26">
         <f t="shared" si="11"/>
@@ -12560,7 +12641,7 @@
     </row>
     <row r="111" spans="3:11">
       <c r="C111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E111" s="26">
         <f t="shared" si="11"/>
@@ -12589,7 +12670,7 @@
     </row>
     <row r="112" spans="3:11">
       <c r="C112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="26">
         <f t="shared" si="11"/>
@@ -12618,7 +12699,7 @@
     </row>
     <row r="113" spans="3:11">
       <c r="C113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E113" s="26">
         <f t="shared" si="11"/>
@@ -12647,7 +12728,7 @@
     </row>
     <row r="114" spans="3:11">
       <c r="C114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E114" s="26">
         <f t="shared" si="11"/>
@@ -12676,7 +12757,7 @@
     </row>
     <row r="115" spans="3:11">
       <c r="C115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E115" s="26">
         <f t="shared" si="11"/>
@@ -12705,7 +12786,7 @@
     </row>
     <row r="116" spans="3:11">
       <c r="C116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E116" s="26">
         <f t="shared" si="11"/>
@@ -12734,7 +12815,7 @@
     </row>
     <row r="117" spans="3:11">
       <c r="C117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E117" s="26">
         <f t="shared" si="11"/>
@@ -12763,7 +12844,7 @@
     </row>
     <row r="118" spans="3:11">
       <c r="C118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E118" s="26">
         <f t="shared" si="11"/>
@@ -12792,10 +12873,10 @@
     </row>
     <row r="119" spans="3:11">
       <c r="C119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E119" s="26">
         <f t="shared" si="11"/>
@@ -12824,7 +12905,7 @@
     </row>
     <row r="120" spans="3:11">
       <c r="C120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="26">
         <f t="shared" si="11"/>
@@ -12853,7 +12934,7 @@
     </row>
     <row r="121" spans="3:11">
       <c r="C121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E121" s="26">
         <f t="shared" si="11"/>
@@ -12882,7 +12963,7 @@
     </row>
     <row r="122" spans="3:11">
       <c r="C122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E122" s="26">
         <f t="shared" si="11"/>
@@ -12911,7 +12992,7 @@
     </row>
     <row r="123" spans="3:11">
       <c r="C123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E123" s="26">
         <f t="shared" si="11"/>
@@ -12940,7 +13021,7 @@
     </row>
     <row r="124" spans="3:11">
       <c r="C124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E124" s="26">
         <f t="shared" si="11"/>
@@ -12969,7 +13050,7 @@
     </row>
     <row r="125" spans="3:11">
       <c r="C125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E125" s="26">
         <f t="shared" si="11"/>
@@ -12998,7 +13079,7 @@
     </row>
     <row r="126" spans="3:11">
       <c r="C126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E126" s="26">
         <f t="shared" si="11"/>
@@ -13027,7 +13108,7 @@
     </row>
     <row r="127" spans="3:11">
       <c r="C127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E127" s="26">
         <f t="shared" si="11"/>
@@ -13056,7 +13137,7 @@
     </row>
     <row r="128" spans="3:11">
       <c r="C128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E128" s="26">
         <f t="shared" si="11"/>
@@ -13085,7 +13166,7 @@
     </row>
     <row r="129" spans="3:11">
       <c r="C129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E129" s="26">
         <f t="shared" si="11"/>
@@ -13114,7 +13195,7 @@
     </row>
     <row r="130" spans="3:11">
       <c r="C130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E130" s="26">
         <f t="shared" si="11"/>
@@ -13143,10 +13224,10 @@
     </row>
     <row r="131" spans="3:11">
       <c r="C131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E131" s="26">
         <f t="shared" si="11"/>
@@ -13175,7 +13256,7 @@
     </row>
     <row r="132" spans="3:11">
       <c r="C132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E132" s="26">
         <f t="shared" si="11"/>
@@ -13204,7 +13285,7 @@
     </row>
     <row r="133" spans="3:11">
       <c r="C133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E133" s="26">
         <f t="shared" si="11"/>
@@ -13233,7 +13314,7 @@
     </row>
     <row r="134" spans="3:11">
       <c r="C134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E134" s="26">
         <f t="shared" si="11"/>
@@ -13262,7 +13343,7 @@
     </row>
     <row r="135" spans="3:11">
       <c r="C135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E135" s="26">
         <f t="shared" si="11"/>
@@ -13291,7 +13372,7 @@
     </row>
     <row r="136" spans="3:11">
       <c r="C136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E136" s="26">
         <f t="shared" si="11"/>
@@ -13320,7 +13401,7 @@
     </row>
     <row r="137" spans="3:11">
       <c r="C137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E137" s="26">
         <f t="shared" si="11"/>
@@ -13349,7 +13430,7 @@
     </row>
     <row r="138" spans="3:11">
       <c r="C138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E138" s="26">
         <f t="shared" ref="E138:E182" si="17">E137-B$6-H138</f>
@@ -13378,7 +13459,7 @@
     </row>
     <row r="139" spans="3:11">
       <c r="C139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E139" s="26">
         <f t="shared" si="17"/>
@@ -13407,7 +13488,7 @@
     </row>
     <row r="140" spans="3:11">
       <c r="C140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E140" s="26">
         <f t="shared" si="17"/>
@@ -13436,7 +13517,7 @@
     </row>
     <row r="141" spans="3:11">
       <c r="C141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E141" s="26">
         <f t="shared" si="17"/>
@@ -13465,7 +13546,7 @@
     </row>
     <row r="142" spans="3:11">
       <c r="C142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E142" s="26">
         <f t="shared" si="17"/>
@@ -13494,7 +13575,7 @@
     </row>
     <row r="143" spans="3:11">
       <c r="C143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D143">
         <v>2029</v>
@@ -13526,7 +13607,7 @@
     </row>
     <row r="144" spans="3:11">
       <c r="C144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E144" s="26">
         <f t="shared" si="17"/>
@@ -13555,7 +13636,7 @@
     </row>
     <row r="145" spans="3:11">
       <c r="C145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E145" s="26">
         <f t="shared" si="17"/>
@@ -13584,7 +13665,7 @@
     </row>
     <row r="146" spans="3:11">
       <c r="C146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E146" s="26">
         <f t="shared" si="17"/>
@@ -13613,7 +13694,7 @@
     </row>
     <row r="147" spans="3:11">
       <c r="C147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E147" s="26">
         <f t="shared" si="17"/>
@@ -13642,7 +13723,7 @@
     </row>
     <row r="148" spans="3:11">
       <c r="C148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E148" s="26">
         <f t="shared" si="17"/>
@@ -13671,7 +13752,7 @@
     </row>
     <row r="149" spans="3:11">
       <c r="C149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E149" s="26">
         <f t="shared" si="17"/>
@@ -13700,7 +13781,7 @@
     </row>
     <row r="150" spans="3:11">
       <c r="C150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E150" s="26">
         <f t="shared" si="17"/>
@@ -13729,7 +13810,7 @@
     </row>
     <row r="151" spans="3:11">
       <c r="C151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E151" s="26">
         <f t="shared" si="17"/>
@@ -13758,7 +13839,7 @@
     </row>
     <row r="152" spans="3:11">
       <c r="C152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E152" s="26">
         <f t="shared" si="17"/>
@@ -13787,7 +13868,7 @@
     </row>
     <row r="153" spans="3:11">
       <c r="C153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E153" s="26">
         <f t="shared" si="17"/>
@@ -13816,7 +13897,7 @@
     </row>
     <row r="154" spans="3:11">
       <c r="C154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E154" s="26">
         <f t="shared" si="17"/>
@@ -13845,7 +13926,7 @@
     </row>
     <row r="155" spans="3:11">
       <c r="C155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E155" s="26">
         <f t="shared" si="17"/>
@@ -13874,7 +13955,7 @@
     </row>
     <row r="156" spans="3:11">
       <c r="C156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E156" s="26">
         <f t="shared" si="17"/>
@@ -13903,7 +13984,7 @@
     </row>
     <row r="157" spans="3:11">
       <c r="C157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E157" s="26">
         <f t="shared" si="17"/>
@@ -13932,7 +14013,7 @@
     </row>
     <row r="158" spans="3:11">
       <c r="C158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E158" s="26">
         <f t="shared" si="17"/>
@@ -13961,7 +14042,7 @@
     </row>
     <row r="159" spans="3:11">
       <c r="C159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E159" s="26">
         <f t="shared" si="17"/>
@@ -13990,7 +14071,7 @@
     </row>
     <row r="160" spans="3:11">
       <c r="C160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E160" s="26">
         <f t="shared" si="17"/>
@@ -14019,7 +14100,7 @@
     </row>
     <row r="161" spans="3:11">
       <c r="C161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E161" s="26">
         <f t="shared" si="17"/>
@@ -14048,7 +14129,7 @@
     </row>
     <row r="162" spans="3:11">
       <c r="C162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E162" s="26">
         <f t="shared" si="17"/>
@@ -14077,7 +14158,7 @@
     </row>
     <row r="163" spans="3:11">
       <c r="C163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E163" s="26">
         <f t="shared" si="17"/>
@@ -14106,7 +14187,7 @@
     </row>
     <row r="164" spans="3:11">
       <c r="C164" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E164" s="26">
         <f t="shared" si="17"/>
@@ -14135,7 +14216,7 @@
     </row>
     <row r="165" spans="3:11">
       <c r="C165" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E165" s="26">
         <f t="shared" si="17"/>
@@ -14164,7 +14245,7 @@
     </row>
     <row r="166" spans="3:11">
       <c r="C166" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E166" s="26">
         <f t="shared" si="17"/>
@@ -14193,7 +14274,7 @@
     </row>
     <row r="167" spans="3:11">
       <c r="C167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E167" s="26">
         <f t="shared" si="17"/>
@@ -14222,7 +14303,7 @@
     </row>
     <row r="168" spans="3:11">
       <c r="C168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E168" s="26">
         <f t="shared" si="17"/>
@@ -14251,7 +14332,7 @@
     </row>
     <row r="169" spans="3:11">
       <c r="C169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E169" s="26">
         <f t="shared" si="17"/>
@@ -14280,7 +14361,7 @@
     </row>
     <row r="170" spans="3:11">
       <c r="C170" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E170" s="26">
         <f t="shared" si="17"/>
@@ -14309,7 +14390,7 @@
     </row>
     <row r="171" spans="3:11">
       <c r="C171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E171" s="26">
         <f t="shared" si="17"/>
@@ -14338,7 +14419,7 @@
     </row>
     <row r="172" spans="3:11">
       <c r="C172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E172" s="26">
         <f t="shared" si="17"/>
@@ -14367,7 +14448,7 @@
     </row>
     <row r="173" spans="3:11">
       <c r="C173" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E173" s="26">
         <f t="shared" si="17"/>
@@ -14396,7 +14477,7 @@
     </row>
     <row r="174" spans="3:11">
       <c r="C174" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E174" s="26">
         <f t="shared" si="17"/>
@@ -14425,7 +14506,7 @@
     </row>
     <row r="175" spans="3:11">
       <c r="C175" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E175" s="26">
         <f t="shared" si="17"/>
@@ -14454,7 +14535,7 @@
     </row>
     <row r="176" spans="3:11">
       <c r="C176" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E176" s="26">
         <f t="shared" si="17"/>
@@ -14483,7 +14564,7 @@
     </row>
     <row r="177" spans="3:11">
       <c r="C177" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E177" s="26">
         <f t="shared" si="17"/>
@@ -14512,7 +14593,7 @@
     </row>
     <row r="178" spans="3:11">
       <c r="C178" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E178" s="26">
         <f t="shared" si="17"/>
@@ -14541,7 +14622,7 @@
     </row>
     <row r="179" spans="3:11">
       <c r="C179" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E179" s="26">
         <f t="shared" si="17"/>
@@ -14570,7 +14651,7 @@
     </row>
     <row r="180" spans="3:11">
       <c r="C180" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E180" s="26">
         <f t="shared" si="17"/>
@@ -14599,7 +14680,7 @@
     </row>
     <row r="181" spans="3:11">
       <c r="C181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E181" s="26">
         <f t="shared" si="17"/>
@@ -14628,7 +14709,7 @@
     </row>
     <row r="182" spans="3:11">
       <c r="C182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E182" s="26">
         <f t="shared" si="17"/>
@@ -14657,7 +14738,7 @@
     </row>
     <row r="183" spans="3:11">
       <c r="C183" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I183" s="26">
         <f t="shared" si="18"/>
@@ -14674,7 +14755,7 @@
     </row>
     <row r="184" spans="3:11">
       <c r="C184" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I184" s="26">
         <f t="shared" si="18"/>
@@ -14691,7 +14772,7 @@
     </row>
     <row r="185" spans="3:11">
       <c r="C185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I185" s="26">
         <f t="shared" si="18"/>
@@ -14708,7 +14789,7 @@
     </row>
     <row r="186" spans="3:11">
       <c r="C186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I186" s="26">
         <f t="shared" si="18"/>
@@ -14725,7 +14806,7 @@
     </row>
     <row r="187" spans="3:11">
       <c r="C187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I187" s="26">
         <f t="shared" si="18"/>
@@ -14742,7 +14823,7 @@
     </row>
     <row r="188" spans="3:11">
       <c r="C188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I188" s="26">
         <f t="shared" si="18"/>
@@ -14759,7 +14840,7 @@
     </row>
     <row r="189" spans="3:11">
       <c r="C189" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I189" s="26">
         <f t="shared" si="18"/>
@@ -14776,7 +14857,7 @@
     </row>
     <row r="190" spans="3:11">
       <c r="C190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I190" s="26">
         <f t="shared" si="18"/>
@@ -14793,7 +14874,7 @@
     </row>
     <row r="191" spans="3:11">
       <c r="C191" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I191" s="26">
         <f t="shared" si="18"/>
@@ -14810,7 +14891,7 @@
     </row>
     <row r="192" spans="3:11">
       <c r="C192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I192" s="26">
         <f t="shared" si="18"/>
@@ -14827,7 +14908,7 @@
     </row>
     <row r="193" spans="3:11">
       <c r="C193" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I193" s="26">
         <f t="shared" si="18"/>
@@ -14844,7 +14925,7 @@
     </row>
     <row r="194" spans="3:11">
       <c r="C194" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I194" s="26">
         <f t="shared" si="18"/>
@@ -14861,7 +14942,7 @@
     </row>
     <row r="195" spans="3:11">
       <c r="C195" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I195" s="26">
         <f t="shared" si="18"/>
@@ -14878,7 +14959,7 @@
     </row>
     <row r="196" spans="3:11">
       <c r="C196" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I196" s="26">
         <f t="shared" si="18"/>
@@ -14895,7 +14976,7 @@
     </row>
     <row r="197" spans="3:11">
       <c r="C197" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I197" s="26">
         <f t="shared" si="18"/>
@@ -14912,7 +14993,7 @@
     </row>
     <row r="198" spans="3:11">
       <c r="C198" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I198" s="26">
         <f t="shared" si="18"/>
@@ -14929,7 +15010,7 @@
     </row>
     <row r="199" spans="3:11">
       <c r="C199" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I199" s="26">
         <f t="shared" si="18"/>
@@ -14946,7 +15027,7 @@
     </row>
     <row r="200" spans="3:11">
       <c r="C200" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I200" s="26">
         <f t="shared" si="18"/>
@@ -14963,7 +15044,7 @@
     </row>
     <row r="201" spans="3:11">
       <c r="C201" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I201" s="26">
         <f t="shared" si="18"/>
@@ -14980,7 +15061,7 @@
     </row>
     <row r="202" spans="3:11">
       <c r="C202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I202" s="26">
         <f t="shared" si="18"/>
@@ -14997,7 +15078,7 @@
     </row>
     <row r="203" spans="3:11">
       <c r="C203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I203" s="26">
         <f t="shared" si="18"/>
@@ -15014,7 +15095,7 @@
     </row>
     <row r="204" spans="3:11">
       <c r="C204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I204" s="26">
         <f t="shared" si="18"/>
@@ -15031,7 +15112,7 @@
     </row>
     <row r="205" spans="3:11">
       <c r="C205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I205" s="26">
         <f t="shared" si="18"/>
@@ -15048,7 +15129,7 @@
     </row>
     <row r="206" spans="3:11">
       <c r="C206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I206" s="26">
         <f t="shared" si="18"/>
@@ -15065,7 +15146,7 @@
     </row>
     <row r="207" spans="3:11">
       <c r="C207" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I207" s="26">
         <f t="shared" si="18"/>
@@ -15082,7 +15163,7 @@
     </row>
     <row r="208" spans="3:11">
       <c r="C208" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I208" s="26">
         <f t="shared" si="18"/>
@@ -15099,7 +15180,7 @@
     </row>
     <row r="209" spans="3:11">
       <c r="C209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I209" s="26">
         <f t="shared" si="18"/>
@@ -15116,7 +15197,7 @@
     </row>
     <row r="210" spans="3:11">
       <c r="C210" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I210" s="26">
         <f t="shared" si="18"/>
@@ -15133,7 +15214,7 @@
     </row>
     <row r="211" spans="3:11">
       <c r="C211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I211" s="26">
         <f t="shared" si="18"/>
@@ -15150,7 +15231,7 @@
     </row>
     <row r="212" spans="3:11">
       <c r="C212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I212" s="26">
         <f t="shared" si="18"/>
@@ -15167,7 +15248,7 @@
     </row>
     <row r="213" spans="3:11">
       <c r="C213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I213" s="26">
         <f t="shared" si="18"/>
@@ -15184,7 +15265,7 @@
     </row>
     <row r="214" spans="3:11">
       <c r="C214" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I214" s="26">
         <f t="shared" si="18"/>
@@ -15201,7 +15282,7 @@
     </row>
     <row r="215" spans="3:11">
       <c r="C215" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I215" s="26">
         <f t="shared" si="18"/>
@@ -15218,7 +15299,7 @@
     </row>
     <row r="216" spans="3:11">
       <c r="C216" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I216" s="26">
         <f t="shared" si="18"/>
@@ -15235,7 +15316,7 @@
     </row>
     <row r="217" spans="3:11">
       <c r="C217" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I217" s="26">
         <f t="shared" si="18"/>
@@ -15252,7 +15333,7 @@
     </row>
     <row r="218" spans="3:11">
       <c r="C218" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I218" s="26">
         <f t="shared" si="18"/>
@@ -15269,7 +15350,7 @@
     </row>
     <row r="219" spans="3:11">
       <c r="C219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I219" s="26">
         <f t="shared" si="18"/>
@@ -15286,7 +15367,7 @@
     </row>
     <row r="220" spans="3:11">
       <c r="C220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I220" s="26">
         <f t="shared" si="18"/>
@@ -15303,7 +15384,7 @@
     </row>
     <row r="221" spans="3:11">
       <c r="C221" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I221" s="26">
         <f t="shared" si="18"/>
@@ -15320,7 +15401,7 @@
     </row>
     <row r="222" spans="3:11">
       <c r="C222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I222" s="26">
         <f t="shared" ref="I222:I267" si="21">I221-K221+J221</f>
@@ -15337,7 +15418,7 @@
     </row>
     <row r="223" spans="3:11">
       <c r="C223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I223" s="26">
         <f t="shared" si="21"/>
@@ -15354,7 +15435,7 @@
     </row>
     <row r="224" spans="3:11">
       <c r="C224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I224" s="26">
         <f t="shared" si="21"/>
@@ -15371,7 +15452,7 @@
     </row>
     <row r="225" spans="3:11">
       <c r="C225" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I225" s="26">
         <f t="shared" si="21"/>
@@ -15388,7 +15469,7 @@
     </row>
     <row r="226" spans="3:11">
       <c r="C226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I226" s="26">
         <f t="shared" si="21"/>
@@ -15405,7 +15486,7 @@
     </row>
     <row r="227" spans="3:11">
       <c r="C227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I227" s="26">
         <f t="shared" si="21"/>
@@ -15422,7 +15503,7 @@
     </row>
     <row r="228" spans="3:11">
       <c r="C228" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I228" s="26">
         <f t="shared" si="21"/>
@@ -15439,7 +15520,7 @@
     </row>
     <row r="229" spans="3:11">
       <c r="C229" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I229" s="26">
         <f t="shared" si="21"/>
@@ -15456,7 +15537,7 @@
     </row>
     <row r="230" spans="3:11">
       <c r="C230" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I230" s="26">
         <f t="shared" si="21"/>
@@ -15473,7 +15554,7 @@
     </row>
     <row r="231" spans="3:11">
       <c r="C231" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I231" s="26">
         <f t="shared" si="21"/>
@@ -15490,7 +15571,7 @@
     </row>
     <row r="232" spans="3:11">
       <c r="C232" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I232" s="26">
         <f t="shared" si="21"/>
@@ -15507,7 +15588,7 @@
     </row>
     <row r="233" spans="3:11">
       <c r="C233" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I233" s="26">
         <f t="shared" si="21"/>
@@ -15524,7 +15605,7 @@
     </row>
     <row r="234" spans="3:11">
       <c r="C234" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I234" s="26">
         <f t="shared" si="21"/>
@@ -15541,7 +15622,7 @@
     </row>
     <row r="235" spans="3:11">
       <c r="C235" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I235" s="26">
         <f t="shared" si="21"/>
@@ -15558,7 +15639,7 @@
     </row>
     <row r="236" spans="3:11">
       <c r="C236" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I236" s="26">
         <f t="shared" si="21"/>
@@ -15575,7 +15656,7 @@
     </row>
     <row r="237" spans="3:11">
       <c r="C237" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I237" s="26">
         <f t="shared" si="21"/>
@@ -15592,7 +15673,7 @@
     </row>
     <row r="238" spans="3:11">
       <c r="C238" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I238" s="26">
         <f t="shared" si="21"/>
@@ -15609,7 +15690,7 @@
     </row>
     <row r="239" spans="3:11">
       <c r="C239" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I239" s="26">
         <f t="shared" si="21"/>
@@ -15626,7 +15707,7 @@
     </row>
     <row r="240" spans="3:11">
       <c r="C240" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I240" s="26">
         <f t="shared" si="21"/>
@@ -15643,7 +15724,7 @@
     </row>
     <row r="241" spans="3:11">
       <c r="C241" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I241" s="26">
         <f t="shared" si="21"/>
@@ -15660,7 +15741,7 @@
     </row>
     <row r="242" spans="3:11">
       <c r="C242" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I242" s="26">
         <f t="shared" si="21"/>
@@ -15677,7 +15758,7 @@
     </row>
     <row r="243" spans="3:11">
       <c r="C243" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I243" s="26">
         <f t="shared" si="21"/>
@@ -15694,7 +15775,7 @@
     </row>
     <row r="244" spans="3:11">
       <c r="C244" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I244" s="26">
         <f t="shared" si="21"/>
@@ -15711,7 +15792,7 @@
     </row>
     <row r="245" spans="3:11">
       <c r="C245" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I245" s="26">
         <f t="shared" si="21"/>
@@ -15728,7 +15809,7 @@
     </row>
     <row r="246" spans="3:11">
       <c r="C246" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I246" s="26">
         <f t="shared" si="21"/>
@@ -15745,7 +15826,7 @@
     </row>
     <row r="247" spans="3:11">
       <c r="C247" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I247" s="26">
         <f t="shared" si="21"/>
@@ -15762,7 +15843,7 @@
     </row>
     <row r="248" spans="3:11">
       <c r="C248" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I248" s="26">
         <f t="shared" si="21"/>
@@ -15779,7 +15860,7 @@
     </row>
     <row r="249" spans="3:11">
       <c r="C249" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I249" s="26">
         <f t="shared" si="21"/>
@@ -15796,7 +15877,7 @@
     </row>
     <row r="250" spans="3:11">
       <c r="C250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I250" s="26">
         <f t="shared" si="21"/>
@@ -15813,7 +15894,7 @@
     </row>
     <row r="251" spans="3:11">
       <c r="C251" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I251" s="26">
         <f t="shared" si="21"/>
@@ -15830,7 +15911,7 @@
     </row>
     <row r="252" spans="3:11">
       <c r="C252" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I252" s="26">
         <f t="shared" si="21"/>
@@ -15847,7 +15928,7 @@
     </row>
     <row r="253" spans="3:11">
       <c r="C253" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I253" s="26">
         <f t="shared" si="21"/>
@@ -15864,7 +15945,7 @@
     </row>
     <row r="254" spans="3:11">
       <c r="C254" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I254" s="26">
         <f t="shared" si="21"/>
@@ -15881,7 +15962,7 @@
     </row>
     <row r="255" spans="3:11">
       <c r="C255" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I255" s="26">
         <f t="shared" si="21"/>
@@ -15898,7 +15979,7 @@
     </row>
     <row r="256" spans="3:11">
       <c r="C256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I256" s="26">
         <f t="shared" si="21"/>
@@ -15915,7 +15996,7 @@
     </row>
     <row r="257" spans="3:11">
       <c r="C257" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I257" s="26">
         <f t="shared" si="21"/>
@@ -15932,7 +16013,7 @@
     </row>
     <row r="258" spans="3:11">
       <c r="C258" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I258" s="26">
         <f t="shared" si="21"/>
@@ -15949,7 +16030,7 @@
     </row>
     <row r="259" spans="3:11">
       <c r="C259" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I259" s="26">
         <f t="shared" si="21"/>
@@ -15966,7 +16047,7 @@
     </row>
     <row r="260" spans="3:11">
       <c r="C260" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I260" s="26">
         <f t="shared" si="21"/>
@@ -15983,7 +16064,7 @@
     </row>
     <row r="261" spans="3:11">
       <c r="C261" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I261" s="26">
         <f t="shared" si="21"/>
@@ -16000,7 +16081,7 @@
     </row>
     <row r="262" spans="3:11">
       <c r="C262" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I262" s="26">
         <f t="shared" si="21"/>
@@ -16017,7 +16098,7 @@
     </row>
     <row r="263" spans="3:11">
       <c r="C263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I263" s="26">
         <f t="shared" si="21"/>
@@ -16034,7 +16115,7 @@
     </row>
     <row r="264" spans="3:11">
       <c r="C264" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I264" s="26">
         <f t="shared" si="21"/>
@@ -16051,7 +16132,7 @@
     </row>
     <row r="265" spans="3:11">
       <c r="C265" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I265" s="26">
         <f t="shared" si="21"/>
@@ -16068,7 +16149,7 @@
     </row>
     <row r="266" spans="3:11">
       <c r="C266" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I266" s="26">
         <f t="shared" si="21"/>
@@ -16085,7 +16166,7 @@
     </row>
     <row r="267" spans="3:11">
       <c r="C267" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I267" s="26">
         <f t="shared" si="21"/>
@@ -16102,7 +16183,7 @@
     </row>
     <row r="268" spans="3:11">
       <c r="C268" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I268" s="26">
         <f t="shared" ref="I268:I303" si="24">I267-K267+J267</f>
@@ -16119,7 +16200,7 @@
     </row>
     <row r="269" spans="3:11">
       <c r="C269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I269" s="26">
         <f t="shared" si="24"/>
@@ -16136,7 +16217,7 @@
     </row>
     <row r="270" spans="3:11">
       <c r="C270" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I270" s="26">
         <f t="shared" si="24"/>
@@ -16153,7 +16234,7 @@
     </row>
     <row r="271" spans="3:11">
       <c r="C271" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I271" s="26">
         <f t="shared" si="24"/>
@@ -16170,7 +16251,7 @@
     </row>
     <row r="272" spans="3:11">
       <c r="C272" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I272" s="26">
         <f t="shared" si="24"/>
@@ -16187,7 +16268,7 @@
     </row>
     <row r="273" spans="3:11">
       <c r="C273" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I273" s="26">
         <f t="shared" si="24"/>
@@ -16204,7 +16285,7 @@
     </row>
     <row r="274" spans="3:11">
       <c r="C274" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I274" s="26">
         <f t="shared" si="24"/>
@@ -16221,7 +16302,7 @@
     </row>
     <row r="275" spans="3:11">
       <c r="C275" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I275" s="26">
         <f t="shared" si="24"/>
@@ -16238,7 +16319,7 @@
     </row>
     <row r="276" spans="3:11">
       <c r="C276" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I276" s="26">
         <f t="shared" si="24"/>
@@ -16255,7 +16336,7 @@
     </row>
     <row r="277" spans="3:11">
       <c r="C277" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I277" s="26">
         <f t="shared" si="24"/>
@@ -16272,7 +16353,7 @@
     </row>
     <row r="278" spans="3:11">
       <c r="C278" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I278" s="26">
         <f t="shared" si="24"/>
@@ -16289,7 +16370,7 @@
     </row>
     <row r="279" spans="3:11">
       <c r="C279" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I279" s="26">
         <f t="shared" si="24"/>
@@ -16306,7 +16387,7 @@
     </row>
     <row r="280" spans="3:11">
       <c r="C280" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I280" s="26">
         <f t="shared" si="24"/>
@@ -16323,7 +16404,7 @@
     </row>
     <row r="281" spans="3:11">
       <c r="C281" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I281" s="26">
         <f t="shared" si="24"/>
@@ -16340,7 +16421,7 @@
     </row>
     <row r="282" spans="3:11">
       <c r="C282" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I282" s="26">
         <f t="shared" si="24"/>
@@ -16357,7 +16438,7 @@
     </row>
     <row r="283" spans="3:11">
       <c r="C283" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I283" s="26">
         <f t="shared" si="24"/>
@@ -16374,7 +16455,7 @@
     </row>
     <row r="284" spans="3:11">
       <c r="C284" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I284" s="26">
         <f t="shared" si="24"/>
@@ -16391,7 +16472,7 @@
     </row>
     <row r="285" spans="3:11">
       <c r="C285" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I285" s="26">
         <f t="shared" si="24"/>
@@ -16408,7 +16489,7 @@
     </row>
     <row r="286" spans="3:11">
       <c r="C286" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I286" s="26">
         <f t="shared" si="24"/>
@@ -16425,7 +16506,7 @@
     </row>
     <row r="287" spans="3:11">
       <c r="C287" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I287" s="26">
         <f t="shared" si="24"/>
@@ -16442,7 +16523,7 @@
     </row>
     <row r="288" spans="3:11">
       <c r="C288" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I288" s="26">
         <f t="shared" si="24"/>
@@ -16459,7 +16540,7 @@
     </row>
     <row r="289" spans="3:11">
       <c r="C289" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I289" s="26">
         <f t="shared" si="24"/>
@@ -16476,7 +16557,7 @@
     </row>
     <row r="290" spans="3:11">
       <c r="C290" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I290" s="26">
         <f t="shared" si="24"/>
@@ -16493,7 +16574,7 @@
     </row>
     <row r="291" spans="3:11">
       <c r="C291" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I291" s="26">
         <f t="shared" si="24"/>
@@ -16510,7 +16591,7 @@
     </row>
     <row r="292" spans="3:11">
       <c r="C292" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I292" s="26">
         <f t="shared" si="24"/>
@@ -16527,7 +16608,7 @@
     </row>
     <row r="293" spans="3:11">
       <c r="C293" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I293" s="26">
         <f t="shared" si="24"/>
@@ -16544,7 +16625,7 @@
     </row>
     <row r="294" spans="3:11">
       <c r="C294" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I294" s="26">
         <f t="shared" si="24"/>
@@ -16561,7 +16642,7 @@
     </row>
     <row r="295" spans="3:11">
       <c r="C295" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I295" s="26">
         <f t="shared" si="24"/>
@@ -16578,7 +16659,7 @@
     </row>
     <row r="296" spans="3:11">
       <c r="C296" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I296" s="26">
         <f t="shared" si="24"/>
@@ -16595,7 +16676,7 @@
     </row>
     <row r="297" spans="3:11">
       <c r="C297" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I297" s="26">
         <f t="shared" si="24"/>
@@ -16612,7 +16693,7 @@
     </row>
     <row r="298" spans="3:11">
       <c r="C298" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I298" s="26">
         <f t="shared" si="24"/>
@@ -16629,7 +16710,7 @@
     </row>
     <row r="299" spans="3:11">
       <c r="C299" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I299" s="26">
         <f t="shared" si="24"/>
@@ -16646,7 +16727,7 @@
     </row>
     <row r="300" spans="3:11">
       <c r="C300" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I300" s="26">
         <f t="shared" si="24"/>
@@ -16663,7 +16744,7 @@
     </row>
     <row r="301" spans="3:11">
       <c r="C301" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I301" s="26">
         <f t="shared" si="24"/>
@@ -16680,7 +16761,7 @@
     </row>
     <row r="302" spans="3:11">
       <c r="C302" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I302" s="26">
         <f t="shared" si="24"/>
@@ -16893,45 +16974,45 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>72</v>
-      </c>
       <c r="K2" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="29">
         <f>B7-B$6</f>
@@ -16960,16 +17041,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="26">
         <f t="shared" ref="E4:E67" si="1">E3-B$6</f>
@@ -16998,17 +17079,17 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="28">
         <f>4.9%</f>
         <v>0.049</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="26">
         <f t="shared" si="1"/>
@@ -17037,17 +17118,17 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="26">
         <f>B7/(B4*12)</f>
         <v>4027.77777777778</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
@@ -17076,16 +17157,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="26">
         <v>1450000</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
@@ -17114,10 +17195,10 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
@@ -17146,10 +17227,10 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
@@ -17178,10 +17259,10 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
@@ -17210,10 +17291,10 @@
     </row>
     <row r="11" spans="3:11">
       <c r="C11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
@@ -17242,10 +17323,10 @@
     </row>
     <row r="12" spans="3:11">
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
@@ -17274,10 +17355,10 @@
     </row>
     <row r="13" spans="3:11">
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
@@ -17306,10 +17387,10 @@
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
@@ -17338,10 +17419,10 @@
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
@@ -17370,10 +17451,10 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
@@ -17402,10 +17483,10 @@
     </row>
     <row r="17" spans="3:11">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
@@ -17434,10 +17515,10 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
@@ -17466,10 +17547,10 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
@@ -17498,10 +17579,10 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
@@ -17530,10 +17611,10 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
@@ -17562,10 +17643,10 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
@@ -17594,10 +17675,10 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
@@ -17626,10 +17707,10 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
@@ -17658,10 +17739,10 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
@@ -17690,10 +17771,10 @@
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
@@ -17722,10 +17803,10 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
@@ -17754,10 +17835,10 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
@@ -17786,10 +17867,10 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
@@ -17818,10 +17899,10 @@
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
@@ -17850,10 +17931,10 @@
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
@@ -17882,10 +17963,10 @@
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
@@ -17914,10 +17995,10 @@
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
@@ -17946,10 +18027,10 @@
     </row>
     <row r="34" spans="3:11">
       <c r="C34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
@@ -17978,7 +18059,7 @@
     </row>
     <row r="35" spans="3:11">
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="26">
@@ -18008,7 +18089,7 @@
     </row>
     <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="26">
@@ -18038,7 +18119,7 @@
     </row>
     <row r="37" spans="3:11">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="26">
@@ -18068,7 +18149,7 @@
     </row>
     <row r="38" spans="3:11">
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
@@ -18097,7 +18178,7 @@
     </row>
     <row r="39" spans="3:11">
       <c r="C39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
@@ -18126,7 +18207,7 @@
     </row>
     <row r="40" spans="3:11">
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
@@ -18155,7 +18236,7 @@
     </row>
     <row r="41" spans="3:11">
       <c r="C41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
@@ -18184,7 +18265,7 @@
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
@@ -18213,7 +18294,7 @@
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
@@ -18242,7 +18323,7 @@
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
@@ -18271,7 +18352,7 @@
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
@@ -18300,7 +18381,7 @@
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
@@ -18329,7 +18410,7 @@
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
@@ -18358,7 +18439,7 @@
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
@@ -18387,7 +18468,7 @@
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
@@ -18416,7 +18497,7 @@
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
@@ -18445,7 +18526,7 @@
     </row>
     <row r="51" spans="3:11">
       <c r="C51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
@@ -18474,7 +18555,7 @@
     </row>
     <row r="52" spans="3:11">
       <c r="C52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
@@ -18503,7 +18584,7 @@
     </row>
     <row r="53" spans="3:11">
       <c r="C53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
@@ -18532,7 +18613,7 @@
     </row>
     <row r="54" spans="3:11">
       <c r="C54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
@@ -18561,7 +18642,7 @@
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
@@ -18590,7 +18671,7 @@
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
@@ -18619,7 +18700,7 @@
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
@@ -18648,7 +18729,7 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
@@ -18677,7 +18758,7 @@
     </row>
     <row r="59" spans="3:11">
       <c r="C59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
@@ -18706,7 +18787,7 @@
     </row>
     <row r="60" spans="3:11">
       <c r="C60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
@@ -18735,7 +18816,7 @@
     </row>
     <row r="61" spans="3:11">
       <c r="C61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
@@ -18764,7 +18845,7 @@
     </row>
     <row r="62" spans="3:11">
       <c r="C62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
@@ -18793,7 +18874,7 @@
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
@@ -18822,7 +18903,7 @@
     </row>
     <row r="64" spans="3:11">
       <c r="C64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
@@ -18851,7 +18932,7 @@
     </row>
     <row r="65" spans="3:11">
       <c r="C65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
@@ -18880,7 +18961,7 @@
     </row>
     <row r="66" spans="3:11">
       <c r="C66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
@@ -18909,7 +18990,7 @@
     </row>
     <row r="67" spans="3:11">
       <c r="C67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
@@ -18938,7 +19019,7 @@
     </row>
     <row r="68" spans="3:11">
       <c r="C68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E68" s="26">
         <f t="shared" ref="E68:E131" si="7">E67-B$6</f>
@@ -18967,7 +19048,7 @@
     </row>
     <row r="69" spans="3:11">
       <c r="C69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E69" s="26">
         <f t="shared" si="7"/>
@@ -18996,7 +19077,7 @@
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="7"/>
@@ -19025,7 +19106,7 @@
     </row>
     <row r="71" spans="3:11">
       <c r="C71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="7"/>
@@ -19054,7 +19135,7 @@
     </row>
     <row r="72" spans="3:11">
       <c r="C72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E72" s="26">
         <f t="shared" si="7"/>
@@ -19083,7 +19164,7 @@
     </row>
     <row r="73" spans="3:11">
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" s="26">
         <f t="shared" si="7"/>
@@ -19112,7 +19193,7 @@
     </row>
     <row r="74" spans="3:11">
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E74" s="26">
         <f t="shared" si="7"/>
@@ -19141,7 +19222,7 @@
     </row>
     <row r="75" spans="3:11">
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E75" s="26">
         <f t="shared" si="7"/>
@@ -19170,7 +19251,7 @@
     </row>
     <row r="76" spans="3:11">
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E76" s="26">
         <f t="shared" si="7"/>
@@ -19199,7 +19280,7 @@
     </row>
     <row r="77" spans="3:11">
       <c r="C77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E77" s="26">
         <f t="shared" si="7"/>
@@ -19228,7 +19309,7 @@
     </row>
     <row r="78" spans="3:11">
       <c r="C78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E78" s="26">
         <f t="shared" si="7"/>
@@ -19257,7 +19338,7 @@
     </row>
     <row r="79" spans="3:11">
       <c r="C79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E79" s="26">
         <f t="shared" si="7"/>
@@ -19286,7 +19367,7 @@
     </row>
     <row r="80" spans="3:11">
       <c r="C80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E80" s="26">
         <f t="shared" si="7"/>
@@ -19315,7 +19396,7 @@
     </row>
     <row r="81" spans="3:11">
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E81" s="26">
         <f t="shared" si="7"/>
@@ -19344,7 +19425,7 @@
     </row>
     <row r="82" spans="3:11">
       <c r="C82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E82" s="26">
         <f t="shared" si="7"/>
@@ -19373,7 +19454,7 @@
     </row>
     <row r="83" spans="3:11">
       <c r="C83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83" s="26">
         <f t="shared" si="7"/>
@@ -19402,7 +19483,7 @@
     </row>
     <row r="84" spans="3:11">
       <c r="C84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E84" s="26">
         <f t="shared" si="7"/>
@@ -19431,7 +19512,7 @@
     </row>
     <row r="85" spans="3:11">
       <c r="C85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E85" s="26">
         <f t="shared" si="7"/>
@@ -19460,7 +19541,7 @@
     </row>
     <row r="86" spans="3:11">
       <c r="C86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E86" s="26">
         <f t="shared" si="7"/>
@@ -19489,7 +19570,7 @@
     </row>
     <row r="87" spans="3:11">
       <c r="C87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" s="26">
         <f t="shared" si="7"/>
@@ -19518,7 +19599,7 @@
     </row>
     <row r="88" spans="3:11">
       <c r="C88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E88" s="26">
         <f t="shared" si="7"/>
@@ -19547,7 +19628,7 @@
     </row>
     <row r="89" spans="3:11">
       <c r="C89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E89" s="26">
         <f t="shared" si="7"/>
@@ -19576,7 +19657,7 @@
     </row>
     <row r="90" spans="3:11">
       <c r="C90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E90" s="26">
         <f t="shared" si="7"/>
@@ -19605,7 +19686,7 @@
     </row>
     <row r="91" spans="3:11">
       <c r="C91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" s="26">
         <f t="shared" si="7"/>
@@ -19634,7 +19715,7 @@
     </row>
     <row r="92" spans="3:11">
       <c r="C92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E92" s="26">
         <f t="shared" si="7"/>
@@ -19663,7 +19744,7 @@
     </row>
     <row r="93" spans="3:11">
       <c r="C93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E93" s="26">
         <f t="shared" si="7"/>
@@ -19692,7 +19773,7 @@
     </row>
     <row r="94" spans="3:11">
       <c r="C94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" s="26">
         <f t="shared" si="7"/>
@@ -19721,7 +19802,7 @@
     </row>
     <row r="95" spans="3:11">
       <c r="C95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E95" s="26">
         <f t="shared" si="7"/>
@@ -19750,7 +19831,7 @@
     </row>
     <row r="96" spans="3:11">
       <c r="C96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E96" s="26">
         <f t="shared" si="7"/>
@@ -19779,7 +19860,7 @@
     </row>
     <row r="97" spans="3:11">
       <c r="C97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E97" s="26">
         <f t="shared" si="7"/>
@@ -19808,7 +19889,7 @@
     </row>
     <row r="98" spans="3:11">
       <c r="C98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E98" s="26">
         <f t="shared" si="7"/>
@@ -19837,7 +19918,7 @@
     </row>
     <row r="99" spans="3:11">
       <c r="C99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E99" s="26">
         <f t="shared" si="7"/>
@@ -19866,7 +19947,7 @@
     </row>
     <row r="100" spans="3:11">
       <c r="C100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E100" s="26">
         <f t="shared" si="7"/>
@@ -19895,7 +19976,7 @@
     </row>
     <row r="101" spans="3:11">
       <c r="C101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E101" s="26">
         <f t="shared" si="7"/>
@@ -19924,7 +20005,7 @@
     </row>
     <row r="102" spans="3:11">
       <c r="C102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E102" s="26">
         <f t="shared" si="7"/>
@@ -19953,7 +20034,7 @@
     </row>
     <row r="103" spans="3:11">
       <c r="C103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E103" s="26">
         <f t="shared" si="7"/>
@@ -19982,7 +20063,7 @@
     </row>
     <row r="104" spans="3:11">
       <c r="C104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E104" s="26">
         <f t="shared" si="7"/>
@@ -20011,7 +20092,7 @@
     </row>
     <row r="105" spans="3:11">
       <c r="C105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E105" s="26">
         <f t="shared" si="7"/>
@@ -20040,7 +20121,7 @@
     </row>
     <row r="106" spans="3:11">
       <c r="C106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E106" s="26">
         <f t="shared" si="7"/>
@@ -20069,7 +20150,7 @@
     </row>
     <row r="107" spans="3:11">
       <c r="C107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E107" s="26">
         <f t="shared" si="7"/>
@@ -20098,7 +20179,7 @@
     </row>
     <row r="108" spans="3:11">
       <c r="C108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E108" s="26">
         <f t="shared" si="7"/>
@@ -20127,7 +20208,7 @@
     </row>
     <row r="109" spans="3:11">
       <c r="C109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E109" s="26">
         <f t="shared" si="7"/>
@@ -20156,7 +20237,7 @@
     </row>
     <row r="110" spans="3:11">
       <c r="C110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E110" s="26">
         <f t="shared" si="7"/>
@@ -20185,7 +20266,7 @@
     </row>
     <row r="111" spans="3:11">
       <c r="C111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E111" s="26">
         <f t="shared" si="7"/>
@@ -20214,7 +20295,7 @@
     </row>
     <row r="112" spans="3:11">
       <c r="C112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="26">
         <f t="shared" si="7"/>
@@ -20243,7 +20324,7 @@
     </row>
     <row r="113" spans="3:11">
       <c r="C113" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E113" s="26">
         <f t="shared" si="7"/>
@@ -20272,7 +20353,7 @@
     </row>
     <row r="114" spans="3:11">
       <c r="C114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E114" s="26">
         <f t="shared" si="7"/>
@@ -20301,7 +20382,7 @@
     </row>
     <row r="115" spans="3:11">
       <c r="C115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E115" s="26">
         <f t="shared" si="7"/>
@@ -20330,7 +20411,7 @@
     </row>
     <row r="116" spans="3:11">
       <c r="C116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E116" s="26">
         <f t="shared" si="7"/>
@@ -20359,7 +20440,7 @@
     </row>
     <row r="117" spans="3:11">
       <c r="C117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E117" s="26">
         <f t="shared" si="7"/>
@@ -20388,7 +20469,7 @@
     </row>
     <row r="118" spans="3:11">
       <c r="C118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E118" s="26">
         <f t="shared" si="7"/>
@@ -20417,7 +20498,7 @@
     </row>
     <row r="119" spans="3:11">
       <c r="C119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E119" s="26">
         <f t="shared" si="7"/>
@@ -20446,7 +20527,7 @@
     </row>
     <row r="120" spans="3:11">
       <c r="C120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="26">
         <f t="shared" si="7"/>
@@ -20475,7 +20556,7 @@
     </row>
     <row r="121" spans="3:11">
       <c r="C121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E121" s="26">
         <f t="shared" si="7"/>
@@ -20504,7 +20585,7 @@
     </row>
     <row r="122" spans="3:11">
       <c r="C122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E122" s="26">
         <f t="shared" si="7"/>
@@ -20533,7 +20614,7 @@
     </row>
     <row r="123" spans="3:11">
       <c r="C123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E123" s="26">
         <f t="shared" si="7"/>
@@ -20562,7 +20643,7 @@
     </row>
     <row r="124" spans="3:11">
       <c r="C124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E124" s="26">
         <f t="shared" si="7"/>
@@ -20591,7 +20672,7 @@
     </row>
     <row r="125" spans="3:11">
       <c r="C125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E125" s="26">
         <f t="shared" si="7"/>
@@ -20620,7 +20701,7 @@
     </row>
     <row r="126" spans="3:11">
       <c r="C126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E126" s="26">
         <f t="shared" si="7"/>
@@ -20649,7 +20730,7 @@
     </row>
     <row r="127" spans="3:11">
       <c r="C127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E127" s="26">
         <f t="shared" si="7"/>
@@ -20678,7 +20759,7 @@
     </row>
     <row r="128" spans="3:11">
       <c r="C128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E128" s="26">
         <f t="shared" si="7"/>
@@ -20707,7 +20788,7 @@
     </row>
     <row r="129" spans="3:11">
       <c r="C129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E129" s="26">
         <f t="shared" si="7"/>
@@ -20736,7 +20817,7 @@
     </row>
     <row r="130" spans="3:11">
       <c r="C130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E130" s="26">
         <f t="shared" si="7"/>
@@ -20765,7 +20846,7 @@
     </row>
     <row r="131" spans="3:11">
       <c r="C131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E131" s="26">
         <f t="shared" si="7"/>
@@ -20794,7 +20875,7 @@
     </row>
     <row r="132" spans="3:11">
       <c r="C132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E132" s="26">
         <f t="shared" ref="E132:E195" si="13">E131-B$6</f>
@@ -20823,7 +20904,7 @@
     </row>
     <row r="133" spans="3:11">
       <c r="C133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E133" s="26">
         <f t="shared" si="13"/>
@@ -20852,7 +20933,7 @@
     </row>
     <row r="134" spans="3:11">
       <c r="C134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E134" s="26">
         <f t="shared" si="13"/>
@@ -20881,7 +20962,7 @@
     </row>
     <row r="135" spans="3:11">
       <c r="C135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E135" s="26">
         <f t="shared" si="13"/>
@@ -20910,7 +20991,7 @@
     </row>
     <row r="136" spans="3:11">
       <c r="C136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E136" s="26">
         <f t="shared" si="13"/>
@@ -20939,7 +21020,7 @@
     </row>
     <row r="137" spans="3:11">
       <c r="C137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E137" s="26">
         <f t="shared" si="13"/>
@@ -20968,7 +21049,7 @@
     </row>
     <row r="138" spans="3:11">
       <c r="C138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E138" s="26">
         <f t="shared" si="13"/>
@@ -20997,7 +21078,7 @@
     </row>
     <row r="139" spans="3:11">
       <c r="C139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E139" s="26">
         <f t="shared" si="13"/>
@@ -21026,7 +21107,7 @@
     </row>
     <row r="140" spans="3:11">
       <c r="C140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E140" s="26">
         <f t="shared" si="13"/>
@@ -21055,7 +21136,7 @@
     </row>
     <row r="141" spans="3:11">
       <c r="C141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E141" s="26">
         <f t="shared" si="13"/>
@@ -21084,7 +21165,7 @@
     </row>
     <row r="142" spans="3:11">
       <c r="C142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E142" s="26">
         <f t="shared" si="13"/>
@@ -21113,7 +21194,7 @@
     </row>
     <row r="143" spans="3:11">
       <c r="C143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E143" s="26">
         <f t="shared" si="13"/>
@@ -21142,7 +21223,7 @@
     </row>
     <row r="144" spans="3:11">
       <c r="C144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E144" s="26">
         <f t="shared" si="13"/>
@@ -21171,7 +21252,7 @@
     </row>
     <row r="145" spans="3:11">
       <c r="C145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E145" s="26">
         <f t="shared" si="13"/>
@@ -21200,7 +21281,7 @@
     </row>
     <row r="146" spans="3:11">
       <c r="C146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E146" s="26">
         <f t="shared" si="13"/>
@@ -21229,7 +21310,7 @@
     </row>
     <row r="147" spans="3:11">
       <c r="C147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E147" s="26">
         <f t="shared" si="13"/>
@@ -21258,7 +21339,7 @@
     </row>
     <row r="148" spans="3:11">
       <c r="C148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E148" s="26">
         <f t="shared" si="13"/>
@@ -21287,7 +21368,7 @@
     </row>
     <row r="149" spans="3:11">
       <c r="C149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E149" s="26">
         <f t="shared" si="13"/>
@@ -21316,7 +21397,7 @@
     </row>
     <row r="150" spans="3:11">
       <c r="C150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E150" s="26">
         <f t="shared" si="13"/>
@@ -21345,7 +21426,7 @@
     </row>
     <row r="151" spans="3:11">
       <c r="C151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E151" s="26">
         <f t="shared" si="13"/>
@@ -21374,7 +21455,7 @@
     </row>
     <row r="152" spans="3:11">
       <c r="C152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E152" s="26">
         <f t="shared" si="13"/>
@@ -21403,7 +21484,7 @@
     </row>
     <row r="153" spans="3:11">
       <c r="C153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E153" s="26">
         <f t="shared" si="13"/>
@@ -21432,7 +21513,7 @@
     </row>
     <row r="154" spans="3:11">
       <c r="C154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E154" s="26">
         <f t="shared" si="13"/>
@@ -21461,7 +21542,7 @@
     </row>
     <row r="155" spans="3:11">
       <c r="C155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E155" s="26">
         <f t="shared" si="13"/>
@@ -21490,7 +21571,7 @@
     </row>
     <row r="156" spans="3:11">
       <c r="C156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E156" s="26">
         <f t="shared" si="13"/>
@@ -21519,7 +21600,7 @@
     </row>
     <row r="157" spans="3:11">
       <c r="C157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E157" s="26">
         <f t="shared" si="13"/>
@@ -21548,7 +21629,7 @@
     </row>
     <row r="158" spans="3:11">
       <c r="C158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E158" s="26">
         <f t="shared" si="13"/>
@@ -21577,7 +21658,7 @@
     </row>
     <row r="159" spans="3:11">
       <c r="C159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E159" s="26">
         <f t="shared" si="13"/>
@@ -21606,7 +21687,7 @@
     </row>
     <row r="160" spans="3:11">
       <c r="C160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E160" s="26">
         <f t="shared" si="13"/>
@@ -21635,7 +21716,7 @@
     </row>
     <row r="161" spans="3:11">
       <c r="C161" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E161" s="26">
         <f t="shared" si="13"/>
@@ -21664,7 +21745,7 @@
     </row>
     <row r="162" spans="3:11">
       <c r="C162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E162" s="26">
         <f t="shared" si="13"/>
@@ -21693,7 +21774,7 @@
     </row>
     <row r="163" spans="3:11">
       <c r="C163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E163" s="26">
         <f t="shared" si="13"/>
@@ -21722,7 +21803,7 @@
     </row>
     <row r="164" spans="3:11">
       <c r="C164" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E164" s="26">
         <f t="shared" si="13"/>
@@ -21751,7 +21832,7 @@
     </row>
     <row r="165" spans="3:11">
       <c r="C165" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E165" s="26">
         <f t="shared" si="13"/>
@@ -21780,7 +21861,7 @@
     </row>
     <row r="166" spans="3:11">
       <c r="C166" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E166" s="26">
         <f t="shared" si="13"/>
@@ -21809,7 +21890,7 @@
     </row>
     <row r="167" spans="3:11">
       <c r="C167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E167" s="26">
         <f t="shared" si="13"/>
@@ -21838,7 +21919,7 @@
     </row>
     <row r="168" spans="3:11">
       <c r="C168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E168" s="26">
         <f t="shared" si="13"/>
@@ -21867,7 +21948,7 @@
     </row>
     <row r="169" spans="3:11">
       <c r="C169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E169" s="26">
         <f t="shared" si="13"/>
@@ -21896,7 +21977,7 @@
     </row>
     <row r="170" spans="3:11">
       <c r="C170" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E170" s="26">
         <f t="shared" si="13"/>
@@ -21925,7 +22006,7 @@
     </row>
     <row r="171" spans="3:11">
       <c r="C171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E171" s="26">
         <f t="shared" si="13"/>
@@ -21954,7 +22035,7 @@
     </row>
     <row r="172" spans="3:11">
       <c r="C172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E172" s="26">
         <f t="shared" si="13"/>
@@ -21983,7 +22064,7 @@
     </row>
     <row r="173" spans="3:11">
       <c r="C173" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E173" s="26">
         <f t="shared" si="13"/>
@@ -22012,7 +22093,7 @@
     </row>
     <row r="174" spans="3:11">
       <c r="C174" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E174" s="26">
         <f t="shared" si="13"/>
@@ -22041,7 +22122,7 @@
     </row>
     <row r="175" spans="3:11">
       <c r="C175" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E175" s="26">
         <f t="shared" si="13"/>
@@ -22070,7 +22151,7 @@
     </row>
     <row r="176" spans="3:11">
       <c r="C176" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E176" s="26">
         <f t="shared" si="13"/>
@@ -22099,7 +22180,7 @@
     </row>
     <row r="177" spans="3:11">
       <c r="C177" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E177" s="26">
         <f t="shared" si="13"/>
@@ -22128,7 +22209,7 @@
     </row>
     <row r="178" spans="3:11">
       <c r="C178" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E178" s="26">
         <f t="shared" si="13"/>
@@ -22157,7 +22238,7 @@
     </row>
     <row r="179" spans="3:11">
       <c r="C179" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E179" s="26">
         <f t="shared" si="13"/>
@@ -22186,7 +22267,7 @@
     </row>
     <row r="180" spans="3:11">
       <c r="C180" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E180" s="26">
         <f t="shared" si="13"/>
@@ -22215,7 +22296,7 @@
     </row>
     <row r="181" spans="3:11">
       <c r="C181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E181" s="26">
         <f t="shared" si="13"/>
@@ -22244,7 +22325,7 @@
     </row>
     <row r="182" spans="3:11">
       <c r="C182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E182" s="26">
         <f t="shared" si="13"/>
@@ -22273,7 +22354,7 @@
     </row>
     <row r="183" spans="3:11">
       <c r="C183" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E183" s="26">
         <f t="shared" si="13"/>
@@ -22302,7 +22383,7 @@
     </row>
     <row r="184" spans="3:11">
       <c r="C184" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E184" s="26">
         <f t="shared" si="13"/>
@@ -22331,7 +22412,7 @@
     </row>
     <row r="185" spans="3:11">
       <c r="C185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E185" s="26">
         <f t="shared" si="13"/>
@@ -22360,7 +22441,7 @@
     </row>
     <row r="186" spans="3:11">
       <c r="C186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E186" s="26">
         <f t="shared" si="13"/>
@@ -22389,7 +22470,7 @@
     </row>
     <row r="187" spans="3:11">
       <c r="C187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E187" s="26">
         <f t="shared" si="13"/>
@@ -22418,7 +22499,7 @@
     </row>
     <row r="188" spans="3:11">
       <c r="C188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E188" s="26">
         <f t="shared" si="13"/>
@@ -22447,7 +22528,7 @@
     </row>
     <row r="189" spans="3:11">
       <c r="C189" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E189" s="26">
         <f t="shared" si="13"/>
@@ -22476,7 +22557,7 @@
     </row>
     <row r="190" spans="3:11">
       <c r="C190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E190" s="26">
         <f t="shared" si="13"/>
@@ -22505,7 +22586,7 @@
     </row>
     <row r="191" spans="3:11">
       <c r="C191" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E191" s="26">
         <f t="shared" si="13"/>
@@ -22534,7 +22615,7 @@
     </row>
     <row r="192" spans="3:11">
       <c r="C192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E192" s="26">
         <f t="shared" si="13"/>
@@ -22563,7 +22644,7 @@
     </row>
     <row r="193" spans="3:11">
       <c r="C193" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E193" s="26">
         <f t="shared" si="13"/>
@@ -22592,7 +22673,7 @@
     </row>
     <row r="194" spans="3:11">
       <c r="C194" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E194" s="26">
         <f t="shared" si="13"/>
@@ -22621,7 +22702,7 @@
     </row>
     <row r="195" spans="3:11">
       <c r="C195" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E195" s="26">
         <f t="shared" si="13"/>
@@ -22650,7 +22731,7 @@
     </row>
     <row r="196" spans="3:11">
       <c r="C196" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E196" s="26">
         <f t="shared" ref="E196:E259" si="19">E195-B$6</f>
@@ -22679,7 +22760,7 @@
     </row>
     <row r="197" spans="3:11">
       <c r="C197" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E197" s="26">
         <f t="shared" si="19"/>
@@ -22708,7 +22789,7 @@
     </row>
     <row r="198" spans="3:11">
       <c r="C198" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E198" s="26">
         <f t="shared" si="19"/>
@@ -22737,7 +22818,7 @@
     </row>
     <row r="199" spans="3:11">
       <c r="C199" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E199" s="26">
         <f t="shared" si="19"/>
@@ -22766,7 +22847,7 @@
     </row>
     <row r="200" spans="3:11">
       <c r="C200" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E200" s="26">
         <f t="shared" si="19"/>
@@ -22795,7 +22876,7 @@
     </row>
     <row r="201" spans="3:11">
       <c r="C201" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E201" s="26">
         <f t="shared" si="19"/>
@@ -22824,7 +22905,7 @@
     </row>
     <row r="202" spans="3:11">
       <c r="C202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E202" s="26">
         <f t="shared" si="19"/>
@@ -22853,7 +22934,7 @@
     </row>
     <row r="203" spans="3:11">
       <c r="C203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E203" s="26">
         <f t="shared" si="19"/>
@@ -22882,7 +22963,7 @@
     </row>
     <row r="204" spans="3:11">
       <c r="C204" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E204" s="26">
         <f t="shared" si="19"/>
@@ -22911,7 +22992,7 @@
     </row>
     <row r="205" spans="3:11">
       <c r="C205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E205" s="26">
         <f t="shared" si="19"/>
@@ -22940,7 +23021,7 @@
     </row>
     <row r="206" spans="3:11">
       <c r="C206" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E206" s="26">
         <f t="shared" si="19"/>
@@ -22969,7 +23050,7 @@
     </row>
     <row r="207" spans="3:11">
       <c r="C207" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E207" s="26">
         <f t="shared" si="19"/>
@@ -22998,7 +23079,7 @@
     </row>
     <row r="208" spans="3:11">
       <c r="C208" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E208" s="26">
         <f t="shared" si="19"/>
@@ -23027,7 +23108,7 @@
     </row>
     <row r="209" spans="3:11">
       <c r="C209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E209" s="26">
         <f t="shared" si="19"/>
@@ -23056,7 +23137,7 @@
     </row>
     <row r="210" spans="3:11">
       <c r="C210" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E210" s="26">
         <f t="shared" si="19"/>
@@ -23085,7 +23166,7 @@
     </row>
     <row r="211" spans="3:11">
       <c r="C211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E211" s="26">
         <f t="shared" si="19"/>
@@ -23114,7 +23195,7 @@
     </row>
     <row r="212" spans="3:11">
       <c r="C212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E212" s="26">
         <f t="shared" si="19"/>
@@ -23143,7 +23224,7 @@
     </row>
     <row r="213" spans="3:11">
       <c r="C213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E213" s="26">
         <f t="shared" si="19"/>
@@ -23172,7 +23253,7 @@
     </row>
     <row r="214" spans="3:11">
       <c r="C214" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E214" s="26">
         <f t="shared" si="19"/>
@@ -23201,7 +23282,7 @@
     </row>
     <row r="215" spans="3:11">
       <c r="C215" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E215" s="26">
         <f t="shared" si="19"/>
@@ -23230,7 +23311,7 @@
     </row>
     <row r="216" spans="3:11">
       <c r="C216" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E216" s="26">
         <f t="shared" si="19"/>
@@ -23259,7 +23340,7 @@
     </row>
     <row r="217" spans="3:11">
       <c r="C217" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E217" s="26">
         <f t="shared" si="19"/>
@@ -23288,7 +23369,7 @@
     </row>
     <row r="218" spans="3:11">
       <c r="C218" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E218" s="26">
         <f t="shared" si="19"/>
@@ -23317,7 +23398,7 @@
     </row>
     <row r="219" spans="3:11">
       <c r="C219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E219" s="26">
         <f t="shared" si="19"/>
@@ -23346,7 +23427,7 @@
     </row>
     <row r="220" spans="3:11">
       <c r="C220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E220" s="26">
         <f t="shared" si="19"/>
@@ -23375,7 +23456,7 @@
     </row>
     <row r="221" spans="3:11">
       <c r="C221" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E221" s="26">
         <f t="shared" si="19"/>
@@ -23404,7 +23485,7 @@
     </row>
     <row r="222" spans="3:11">
       <c r="C222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E222" s="26">
         <f t="shared" si="19"/>
@@ -23433,7 +23514,7 @@
     </row>
     <row r="223" spans="3:11">
       <c r="C223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E223" s="26">
         <f t="shared" si="19"/>
@@ -23462,7 +23543,7 @@
     </row>
     <row r="224" spans="3:11">
       <c r="C224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E224" s="26">
         <f t="shared" si="19"/>
@@ -23491,7 +23572,7 @@
     </row>
     <row r="225" spans="3:11">
       <c r="C225" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E225" s="26">
         <f t="shared" si="19"/>
@@ -23520,7 +23601,7 @@
     </row>
     <row r="226" spans="3:11">
       <c r="C226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E226" s="26">
         <f t="shared" si="19"/>
@@ -23549,7 +23630,7 @@
     </row>
     <row r="227" spans="3:11">
       <c r="C227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E227" s="26">
         <f t="shared" si="19"/>
@@ -23578,7 +23659,7 @@
     </row>
     <row r="228" spans="3:11">
       <c r="C228" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E228" s="26">
         <f t="shared" si="19"/>
@@ -23607,7 +23688,7 @@
     </row>
     <row r="229" spans="3:11">
       <c r="C229" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E229" s="26">
         <f t="shared" si="19"/>
@@ -23636,7 +23717,7 @@
     </row>
     <row r="230" spans="3:11">
       <c r="C230" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E230" s="26">
         <f t="shared" si="19"/>
@@ -23665,7 +23746,7 @@
     </row>
     <row r="231" spans="3:11">
       <c r="C231" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E231" s="26">
         <f t="shared" si="19"/>
@@ -23694,7 +23775,7 @@
     </row>
     <row r="232" spans="3:11">
       <c r="C232" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E232" s="26">
         <f t="shared" si="19"/>
@@ -23723,7 +23804,7 @@
     </row>
     <row r="233" spans="3:11">
       <c r="C233" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E233" s="26">
         <f t="shared" si="19"/>
@@ -23752,7 +23833,7 @@
     </row>
     <row r="234" spans="3:11">
       <c r="C234" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E234" s="26">
         <f t="shared" si="19"/>
@@ -23781,7 +23862,7 @@
     </row>
     <row r="235" spans="3:11">
       <c r="C235" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E235" s="26">
         <f t="shared" si="19"/>
@@ -23810,7 +23891,7 @@
     </row>
     <row r="236" spans="3:11">
       <c r="C236" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E236" s="26">
         <f t="shared" si="19"/>
@@ -23839,7 +23920,7 @@
     </row>
     <row r="237" spans="3:11">
       <c r="C237" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E237" s="26">
         <f t="shared" si="19"/>
@@ -23868,7 +23949,7 @@
     </row>
     <row r="238" spans="3:11">
       <c r="C238" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E238" s="26">
         <f t="shared" si="19"/>
@@ -23897,7 +23978,7 @@
     </row>
     <row r="239" spans="3:11">
       <c r="C239" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E239" s="26">
         <f t="shared" si="19"/>
@@ -23926,7 +24007,7 @@
     </row>
     <row r="240" spans="3:11">
       <c r="C240" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E240" s="26">
         <f t="shared" si="19"/>
@@ -23955,7 +24036,7 @@
     </row>
     <row r="241" spans="3:11">
       <c r="C241" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E241" s="26">
         <f t="shared" si="19"/>
@@ -23984,7 +24065,7 @@
     </row>
     <row r="242" spans="3:11">
       <c r="C242" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E242" s="26">
         <f t="shared" si="19"/>
@@ -24013,7 +24094,7 @@
     </row>
     <row r="243" spans="3:11">
       <c r="C243" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E243" s="26">
         <f t="shared" si="19"/>
@@ -24042,7 +24123,7 @@
     </row>
     <row r="244" spans="3:11">
       <c r="C244" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E244" s="26">
         <f t="shared" si="19"/>
@@ -24071,7 +24152,7 @@
     </row>
     <row r="245" spans="3:11">
       <c r="C245" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E245" s="26">
         <f t="shared" si="19"/>
@@ -24100,7 +24181,7 @@
     </row>
     <row r="246" spans="3:11">
       <c r="C246" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E246" s="26">
         <f t="shared" si="19"/>
@@ -24129,7 +24210,7 @@
     </row>
     <row r="247" spans="3:11">
       <c r="C247" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E247" s="26">
         <f t="shared" si="19"/>
@@ -24158,7 +24239,7 @@
     </row>
     <row r="248" spans="3:11">
       <c r="C248" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E248" s="26">
         <f t="shared" si="19"/>
@@ -24187,7 +24268,7 @@
     </row>
     <row r="249" spans="3:11">
       <c r="C249" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E249" s="26">
         <f t="shared" si="19"/>
@@ -24216,7 +24297,7 @@
     </row>
     <row r="250" spans="3:11">
       <c r="C250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E250" s="26">
         <f t="shared" si="19"/>
@@ -24245,7 +24326,7 @@
     </row>
     <row r="251" spans="3:11">
       <c r="C251" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E251" s="26">
         <f t="shared" si="19"/>
@@ -24274,7 +24355,7 @@
     </row>
     <row r="252" spans="3:11">
       <c r="C252" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E252" s="26">
         <f t="shared" si="19"/>
@@ -24303,7 +24384,7 @@
     </row>
     <row r="253" spans="3:11">
       <c r="C253" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E253" s="26">
         <f t="shared" si="19"/>
@@ -24332,7 +24413,7 @@
     </row>
     <row r="254" spans="3:11">
       <c r="C254" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E254" s="26">
         <f t="shared" si="19"/>
@@ -24361,7 +24442,7 @@
     </row>
     <row r="255" spans="3:11">
       <c r="C255" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E255" s="26">
         <f t="shared" si="19"/>
@@ -24390,7 +24471,7 @@
     </row>
     <row r="256" spans="3:11">
       <c r="C256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E256" s="26">
         <f t="shared" si="19"/>
@@ -24419,7 +24500,7 @@
     </row>
     <row r="257" spans="3:11">
       <c r="C257" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E257" s="26">
         <f t="shared" si="19"/>
@@ -24448,7 +24529,7 @@
     </row>
     <row r="258" spans="3:11">
       <c r="C258" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E258" s="26">
         <f t="shared" si="19"/>
@@ -24477,7 +24558,7 @@
     </row>
     <row r="259" spans="3:11">
       <c r="C259" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E259" s="26">
         <f t="shared" si="19"/>
@@ -24506,7 +24587,7 @@
     </row>
     <row r="260" spans="3:11">
       <c r="C260" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E260" s="26">
         <f t="shared" ref="E260:E301" si="25">E259-B$6</f>
@@ -24535,7 +24616,7 @@
     </row>
     <row r="261" spans="3:11">
       <c r="C261" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E261" s="26">
         <f t="shared" si="25"/>
@@ -24564,7 +24645,7 @@
     </row>
     <row r="262" spans="3:11">
       <c r="C262" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E262" s="26">
         <f t="shared" si="25"/>
@@ -24593,7 +24674,7 @@
     </row>
     <row r="263" spans="3:11">
       <c r="C263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E263" s="26">
         <f t="shared" si="25"/>
@@ -24622,7 +24703,7 @@
     </row>
     <row r="264" spans="3:11">
       <c r="C264" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E264" s="26">
         <f t="shared" si="25"/>
@@ -24651,7 +24732,7 @@
     </row>
     <row r="265" spans="3:11">
       <c r="C265" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E265" s="26">
         <f t="shared" si="25"/>
@@ -24680,7 +24761,7 @@
     </row>
     <row r="266" spans="3:11">
       <c r="C266" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E266" s="26">
         <f t="shared" si="25"/>
@@ -24709,7 +24790,7 @@
     </row>
     <row r="267" spans="3:11">
       <c r="C267" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E267" s="26">
         <f t="shared" si="25"/>
@@ -24738,7 +24819,7 @@
     </row>
     <row r="268" spans="3:11">
       <c r="C268" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E268" s="26">
         <f t="shared" si="25"/>
@@ -24767,7 +24848,7 @@
     </row>
     <row r="269" spans="3:11">
       <c r="C269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E269" s="26">
         <f t="shared" si="25"/>
@@ -24796,7 +24877,7 @@
     </row>
     <row r="270" spans="3:11">
       <c r="C270" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E270" s="26">
         <f t="shared" si="25"/>
@@ -24825,7 +24906,7 @@
     </row>
     <row r="271" spans="3:11">
       <c r="C271" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E271" s="26">
         <f t="shared" si="25"/>
@@ -24854,7 +24935,7 @@
     </row>
     <row r="272" spans="3:11">
       <c r="C272" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E272" s="26">
         <f t="shared" si="25"/>
@@ -24883,7 +24964,7 @@
     </row>
     <row r="273" spans="3:11">
       <c r="C273" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E273" s="26">
         <f t="shared" si="25"/>
@@ -24912,7 +24993,7 @@
     </row>
     <row r="274" spans="3:11">
       <c r="C274" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E274" s="26">
         <f t="shared" si="25"/>
@@ -24941,7 +25022,7 @@
     </row>
     <row r="275" spans="3:11">
       <c r="C275" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E275" s="26">
         <f t="shared" si="25"/>
@@ -24970,7 +25051,7 @@
     </row>
     <row r="276" spans="3:11">
       <c r="C276" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E276" s="26">
         <f t="shared" si="25"/>
@@ -24999,7 +25080,7 @@
     </row>
     <row r="277" spans="3:11">
       <c r="C277" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E277" s="26">
         <f t="shared" si="25"/>
@@ -25028,7 +25109,7 @@
     </row>
     <row r="278" spans="3:11">
       <c r="C278" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E278" s="26">
         <f t="shared" si="25"/>
@@ -25057,7 +25138,7 @@
     </row>
     <row r="279" spans="3:11">
       <c r="C279" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E279" s="26">
         <f t="shared" si="25"/>
@@ -25086,7 +25167,7 @@
     </row>
     <row r="280" spans="3:11">
       <c r="C280" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E280" s="26">
         <f t="shared" si="25"/>
@@ -25115,7 +25196,7 @@
     </row>
     <row r="281" spans="3:11">
       <c r="C281" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E281" s="26">
         <f t="shared" si="25"/>
@@ -25144,7 +25225,7 @@
     </row>
     <row r="282" spans="3:11">
       <c r="C282" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E282" s="26">
         <f t="shared" si="25"/>
@@ -25173,7 +25254,7 @@
     </row>
     <row r="283" spans="3:11">
       <c r="C283" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E283" s="26">
         <f t="shared" si="25"/>
@@ -25202,7 +25283,7 @@
     </row>
     <row r="284" spans="3:11">
       <c r="C284" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E284" s="26">
         <f t="shared" si="25"/>
@@ -25231,7 +25312,7 @@
     </row>
     <row r="285" spans="3:11">
       <c r="C285" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E285" s="26">
         <f t="shared" si="25"/>
@@ -25260,7 +25341,7 @@
     </row>
     <row r="286" spans="3:11">
       <c r="C286" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E286" s="26">
         <f t="shared" si="25"/>
@@ -25289,7 +25370,7 @@
     </row>
     <row r="287" spans="3:11">
       <c r="C287" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E287" s="26">
         <f t="shared" si="25"/>
@@ -25318,7 +25399,7 @@
     </row>
     <row r="288" spans="3:11">
       <c r="C288" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E288" s="26">
         <f t="shared" si="25"/>
@@ -25347,7 +25428,7 @@
     </row>
     <row r="289" spans="3:11">
       <c r="C289" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E289" s="26">
         <f t="shared" si="25"/>
@@ -25376,7 +25457,7 @@
     </row>
     <row r="290" spans="3:11">
       <c r="C290" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E290" s="26">
         <f t="shared" si="25"/>
@@ -25405,7 +25486,7 @@
     </row>
     <row r="291" spans="3:11">
       <c r="C291" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E291" s="26">
         <f t="shared" si="25"/>
@@ -25434,7 +25515,7 @@
     </row>
     <row r="292" spans="3:11">
       <c r="C292" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E292" s="26">
         <f t="shared" si="25"/>
@@ -25463,7 +25544,7 @@
     </row>
     <row r="293" spans="3:11">
       <c r="C293" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E293" s="26">
         <f t="shared" si="25"/>
@@ -25492,7 +25573,7 @@
     </row>
     <row r="294" spans="3:11">
       <c r="C294" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E294" s="26">
         <f t="shared" si="25"/>
@@ -25521,7 +25602,7 @@
     </row>
     <row r="295" spans="3:11">
       <c r="C295" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E295" s="26">
         <f t="shared" si="25"/>
@@ -25550,7 +25631,7 @@
     </row>
     <row r="296" spans="3:11">
       <c r="C296" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E296" s="26">
         <f t="shared" si="25"/>
@@ -25579,7 +25660,7 @@
     </row>
     <row r="297" spans="3:11">
       <c r="C297" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E297" s="26">
         <f t="shared" si="25"/>
@@ -25608,7 +25689,7 @@
     </row>
     <row r="298" spans="3:11">
       <c r="C298" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E298" s="26">
         <f t="shared" si="25"/>
@@ -25637,7 +25718,7 @@
     </row>
     <row r="299" spans="3:11">
       <c r="C299" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E299" s="26">
         <f t="shared" si="25"/>
@@ -25666,7 +25747,7 @@
     </row>
     <row r="300" spans="3:11">
       <c r="C300" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E300" s="26">
         <f t="shared" si="25"/>
@@ -25695,7 +25776,7 @@
     </row>
     <row r="301" spans="3:11">
       <c r="C301" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E301" s="26">
         <f t="shared" si="25"/>
@@ -25724,7 +25805,7 @@
     </row>
     <row r="302" spans="3:11">
       <c r="C302" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F302" s="26">
         <f t="shared" si="26"/>
@@ -26090,7 +26171,7 @@
         <v>14</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>15</v>
@@ -27227,13 +27308,13 @@
   <sheetData>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="4:6">

--- a/life/tax2.xlsx
+++ b/life/tax2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15400" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="16140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>net income monthly</t>
-  </si>
-  <si>
-    <t>total net incomee</t>
+    <t>Monthly avg</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
   <si>
     <t>partime</t>
@@ -1476,15 +1476,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1586,14 +1586,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,14 +1647,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1631,9 +1654,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,7 +1677,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1656,57 +1699,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1715,7 +1715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1778,19 +1778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,7 +1796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,25 +1838,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,55 +1868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,19 +1886,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,13 +1940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,6 +1975,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2000,6 +2029,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2010,41 +2054,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,154 +2072,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2220,7 +2220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2234,7 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2243,26 +2243,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2272,6 +2272,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2290,21 +2296,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3125,7 +3131,7 @@
     <col min="11" max="11" width="13.8308823529412" style="8" customWidth="1"/>
     <col min="12" max="12" width="12" style="8" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.3308823529412" style="52" customWidth="1"/>
+    <col min="14" max="14" width="12.3308823529412" style="54" customWidth="1"/>
     <col min="15" max="15" width="14.3308823529412" style="10" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="10" customWidth="1"/>
     <col min="17" max="18" width="11" style="10" customWidth="1"/>
@@ -3194,7 +3200,7 @@
       <c r="L3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="23" t="s">
@@ -3224,834 +3230,834 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" s="50" customFormat="1" spans="1:22">
-      <c r="A5" s="50" t="s">
+    <row r="5" s="52" customFormat="1" spans="1:22">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <f>1/21.75*C5*5</f>
         <v>9195.40229885057</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="52">
         <v>40000</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="52">
         <v>420</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="55">
         <f t="shared" ref="E5:E16" si="0">B5+C5+D5</f>
         <v>49615.4022988506</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="56">
         <f>$E$1*-0.12</f>
         <v>-2550.96</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="57">
         <f>-$E$1*0.08</f>
         <v>-1700.64</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="57">
         <f>-$E$1*0.02</f>
         <v>-425.16</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="57">
         <f>-$E$1*0.002</f>
         <v>-42.516</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="57">
         <f t="shared" ref="J5:J16" si="1">E5+F5+G5+H5+I5</f>
         <v>44896.1262988506</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="57">
         <f t="shared" ref="K5:K11" si="2">J5-G$1</f>
         <v>41396.1262988506</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="63">
         <v>0.3</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="52">
         <v>2755</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="66">
         <f t="shared" ref="N5:N16" si="3">K5*L5-M5</f>
         <v>9663.83788965517</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="57">
         <f t="shared" ref="O5:O16" si="4">J5-N5</f>
         <v>35232.2884091954</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="57">
         <v>300</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="57">
         <v>150</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="57">
         <f t="shared" ref="R5:R10" si="5">E$1*0.03</f>
         <v>637.74</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="52">
         <f t="shared" ref="S5:S16" si="6">-2*F5</f>
         <v>5101.92</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5" s="57">
         <f t="shared" ref="T5:T16" si="7">O5+P5+Q5+R5+S5</f>
         <v>41421.9484091954</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="52">
         <f>-2000</f>
         <v>-2000</v>
       </c>
     </row>
-    <row r="6" s="50" customFormat="1" spans="1:22">
-      <c r="A6" s="50" t="s">
+    <row r="6" s="52" customFormat="1" spans="1:22">
+      <c r="A6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="52">
         <v>27000</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="52">
         <v>460</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="55">
         <f t="shared" si="0"/>
         <v>27460</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="56">
         <f>$E$1*-0.12</f>
         <v>-2550.96</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="57">
         <f>-$E$1*0.08</f>
         <v>-1700.64</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="57">
         <f>-$E$1*0.02</f>
         <v>-425.16</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="57">
         <f>-$E$1*0.002</f>
         <v>-42.516</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="57">
         <f t="shared" si="1"/>
         <v>22740.724</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="57">
         <f t="shared" si="2"/>
         <v>19240.724</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="63">
         <v>0.25</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="52">
         <v>1005</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="66">
         <f t="shared" si="3"/>
         <v>3805.181</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="57">
         <f t="shared" si="4"/>
         <v>18935.543</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="57">
         <v>300</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="57">
         <v>150</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="57">
         <f t="shared" si="5"/>
         <v>637.74</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="52">
         <f t="shared" si="6"/>
         <v>5101.92</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="57">
         <f t="shared" si="7"/>
         <v>25125.203</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="52">
         <f>V5</f>
         <v>-2000</v>
       </c>
     </row>
-    <row r="7" s="50" customFormat="1" spans="1:22">
-      <c r="A7" s="50" t="s">
+    <row r="7" s="52" customFormat="1" spans="1:22">
+      <c r="A7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="52">
         <v>40000</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="52">
         <v>380</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="55">
         <f t="shared" si="0"/>
         <v>40380</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="56">
         <f>$E$1*-0.12</f>
         <v>-2550.96</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="57">
         <f>-$E$1*0.08</f>
         <v>-1700.64</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="57">
         <f>-$E$1*0.02</f>
         <v>-425.16</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="57">
         <f>-$E$1*0.002</f>
         <v>-42.516</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="57">
         <f t="shared" si="1"/>
         <v>35660.724</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="57">
         <f t="shared" si="2"/>
         <v>32160.724</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="63">
         <v>0.25</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="52">
         <v>1005</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="66">
         <f t="shared" si="3"/>
         <v>7035.181</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="57">
         <f t="shared" si="4"/>
         <v>28625.543</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="57">
         <v>100</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="57">
         <v>150</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="57">
         <f t="shared" si="5"/>
         <v>637.74</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="52">
         <f t="shared" si="6"/>
         <v>5101.92</v>
       </c>
-      <c r="T7" s="55">
+      <c r="T7" s="57">
         <f t="shared" si="7"/>
         <v>34615.203</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7" s="52">
         <f t="shared" ref="V7:V15" si="8">V6</f>
         <v>-2000</v>
       </c>
     </row>
-    <row r="8" s="50" customFormat="1" spans="1:22">
-      <c r="A8" s="50" t="s">
+    <row r="8" s="52" customFormat="1" spans="1:22">
+      <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="52">
         <v>40000</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="52">
         <v>420</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="55">
         <f t="shared" si="0"/>
         <v>40420</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="56">
         <f>$E$1*-0.12</f>
         <v>-2550.96</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="57">
         <f>-$E$1*0.08</f>
         <v>-1700.64</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="57">
         <f>-$E$1*0.02</f>
         <v>-425.16</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="57">
         <f>-$E$1*0.002</f>
         <v>-42.516</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="57">
         <f t="shared" si="1"/>
         <v>35700.724</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="57">
         <f t="shared" si="2"/>
         <v>32200.724</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="63">
         <v>0.25</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="52">
         <v>1005</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="66">
         <f t="shared" si="3"/>
         <v>7045.181</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="57">
         <f t="shared" si="4"/>
         <v>28655.543</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="57">
         <v>100</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="57">
         <v>150</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="57">
         <f t="shared" si="5"/>
         <v>637.74</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="52">
         <f t="shared" si="6"/>
         <v>5101.92</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="57">
         <f t="shared" si="7"/>
         <v>34645.203</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="9" s="50" customFormat="1" spans="1:22">
-      <c r="A9" s="50" t="s">
+    <row r="9" s="52" customFormat="1" spans="1:22">
+      <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="52">
         <v>40000</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="52">
         <v>440</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="55">
         <f t="shared" si="0"/>
         <v>40440</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="56">
         <f>$E$1*-0.12</f>
         <v>-2550.96</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="57">
         <f>-$E$1*0.08</f>
         <v>-1700.64</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="57">
         <f>-$E$1*0.02</f>
         <v>-425.16</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="57">
         <f>-$E$1*0.002</f>
         <v>-42.516</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="57">
         <f t="shared" si="1"/>
         <v>35720.724</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="57">
         <f t="shared" si="2"/>
         <v>32220.724</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="63">
         <v>0.25</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="52">
         <v>1005</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="66">
         <f t="shared" si="3"/>
         <v>7050.181</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="57">
         <f t="shared" si="4"/>
         <v>28670.543</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="57">
         <v>150</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="57">
         <v>150</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="57">
         <f t="shared" si="5"/>
         <v>637.74</v>
       </c>
-      <c r="S9" s="50">
+      <c r="S9" s="52">
         <f t="shared" si="6"/>
         <v>5101.92</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="57">
         <f t="shared" si="7"/>
         <v>34710.203</v>
       </c>
-      <c r="V9" s="50">
+      <c r="V9" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="10" s="50" customFormat="1" spans="1:22">
-      <c r="A10" s="50" t="s">
+    <row r="10" s="52" customFormat="1" spans="1:22">
+      <c r="A10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="52">
         <v>20808</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="52">
         <v>40000</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="52">
         <v>420</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
         <v>61228</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="56">
         <f>$E$2*-0.12</f>
         <v>-2774.16</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="57">
         <f t="shared" ref="G10:G16" si="9">-$E$2*0.08</f>
         <v>-1849.44</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="57">
         <f>-$E$2*0.02-3</f>
         <v>-465.36</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="57">
         <f t="shared" ref="I10:I16" si="10">-$E$2*0.002</f>
         <v>-46.236</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="57">
         <f t="shared" si="1"/>
         <v>56092.804</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="57">
         <f t="shared" si="2"/>
         <v>52592.804</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="63">
         <v>0.3</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="52">
         <v>2755</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="66">
         <f t="shared" si="3"/>
         <v>13022.8412</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="57">
         <f t="shared" si="4"/>
         <v>43069.9628</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="57">
         <v>150</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="57">
         <v>150</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="57">
         <f t="shared" si="5"/>
         <v>637.74</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="57">
         <f t="shared" si="7"/>
         <v>49556.0228</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="11" s="50" customFormat="1" spans="1:22">
-      <c r="A11" s="50" t="s">
+    <row r="11" s="52" customFormat="1" spans="1:22">
+      <c r="A11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="52">
         <v>40000</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="52">
         <v>460</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>40460</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="56">
         <f t="shared" ref="F11:F16" si="11">$E$2*-0.12</f>
         <v>-2774.16</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="57">
         <f t="shared" si="9"/>
         <v>-1849.44</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="57">
         <f t="shared" ref="H11:H16" si="12">-$E$2*0.02-3</f>
         <v>-465.36</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="57">
         <f t="shared" si="10"/>
         <v>-46.236</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="57">
         <f t="shared" si="1"/>
         <v>35324.804</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="57">
         <f t="shared" si="2"/>
         <v>31824.804</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="63">
         <v>0.25</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="52">
         <v>1005</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="66">
         <f t="shared" si="3"/>
         <v>6951.201</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="57">
         <f t="shared" si="4"/>
         <v>28373.603</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="57">
         <v>150</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="57">
         <v>150</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="57">
         <f t="shared" ref="R11:R16" si="13">E$2*0.03</f>
         <v>693.54</v>
       </c>
-      <c r="S11" s="50">
+      <c r="S11" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T11" s="55">
+      <c r="T11" s="57">
         <f t="shared" si="7"/>
         <v>34915.463</v>
       </c>
-      <c r="V11" s="50">
+      <c r="V11" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="12" s="50" customFormat="1" spans="1:22">
-      <c r="A12" s="50" t="s">
+    <row r="12" s="52" customFormat="1" spans="1:22">
+      <c r="A12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="52">
         <v>40000</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="52">
         <v>440</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="55">
         <f t="shared" si="0"/>
         <v>40440</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="56">
         <f t="shared" si="11"/>
         <v>-2774.16</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="57">
         <f t="shared" si="9"/>
         <v>-1849.44</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="57">
         <f t="shared" si="12"/>
         <v>-465.36</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="57">
         <f t="shared" si="10"/>
         <v>-46.236</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="57">
         <f t="shared" si="1"/>
         <v>35304.804</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="57">
         <f>J12-G$1</f>
         <v>31804.804</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="63">
         <v>0.25</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="52">
         <v>1005</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="66">
         <f t="shared" si="3"/>
         <v>6946.201</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="57">
         <f t="shared" si="4"/>
         <v>28358.603</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="57">
         <v>150</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="57">
         <v>150</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="57">
         <f t="shared" si="13"/>
         <v>693.54</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="57">
         <f t="shared" si="7"/>
         <v>34900.463</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="13" s="50" customFormat="1" spans="1:22">
-      <c r="A13" s="50" t="s">
+    <row r="13" s="52" customFormat="1" spans="1:22">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="52">
         <v>40000</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="52">
         <v>340</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="55">
         <f t="shared" si="0"/>
         <v>40340</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="56">
         <f t="shared" si="11"/>
         <v>-2774.16</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="57">
         <f t="shared" si="9"/>
         <v>-1849.44</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="57">
         <f t="shared" si="12"/>
         <v>-465.36</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="57">
         <f t="shared" si="10"/>
         <v>-46.236</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="57">
         <f t="shared" si="1"/>
         <v>35204.804</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="57">
         <f>J13-G$1</f>
         <v>31704.804</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="63">
         <v>0.25</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="52">
         <v>1005</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="66">
         <f t="shared" si="3"/>
         <v>6921.201</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="57">
         <f t="shared" si="4"/>
         <v>28283.603</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="62">
         <v>300</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="57">
         <v>150</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="57">
         <f t="shared" si="13"/>
         <v>693.54</v>
       </c>
-      <c r="S13" s="50">
+      <c r="S13" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="57">
         <f t="shared" si="7"/>
         <v>34975.463</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="14" s="50" customFormat="1" spans="1:22">
-      <c r="A14" s="50" t="s">
+    <row r="14" s="52" customFormat="1" spans="1:22">
+      <c r="A14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="52">
         <v>40000</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="52">
         <v>440</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="55">
         <f t="shared" si="0"/>
         <v>40440</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="56">
         <f t="shared" si="11"/>
         <v>-2774.16</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="57">
         <f t="shared" si="9"/>
         <v>-1849.44</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="57">
         <f t="shared" si="12"/>
         <v>-465.36</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="57">
         <f t="shared" si="10"/>
         <v>-46.236</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="57">
         <f t="shared" si="1"/>
         <v>35304.804</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="57">
         <f>J14-G$1</f>
         <v>31804.804</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="63">
         <v>0.25</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="52">
         <v>1005</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="66">
         <f t="shared" si="3"/>
         <v>6946.201</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="57">
         <f t="shared" si="4"/>
         <v>28358.603</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="62">
         <v>300</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="57">
         <v>150</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="57">
         <f t="shared" si="13"/>
         <v>693.54</v>
       </c>
-      <c r="S14" s="50">
+      <c r="S14" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="57">
         <f t="shared" si="7"/>
         <v>35050.463</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
-    <row r="15" s="50" customFormat="1" spans="1:22">
-      <c r="A15" s="50" t="s">
+    <row r="15" s="52" customFormat="1" spans="1:22">
+      <c r="A15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="52">
         <v>40000</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="52">
         <v>380</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="55">
         <f t="shared" si="0"/>
         <v>40380</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="56">
         <f t="shared" si="11"/>
         <v>-2774.16</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="57">
         <f t="shared" si="9"/>
         <v>-1849.44</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="57">
         <f t="shared" si="12"/>
         <v>-465.36</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="57">
         <f t="shared" si="10"/>
         <v>-46.236</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="57">
         <f t="shared" si="1"/>
         <v>35244.804</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="57">
         <f>J15-G$1</f>
         <v>31744.804</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="63">
         <v>0.25</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="52">
         <v>1005</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="66">
         <f t="shared" si="3"/>
         <v>6931.201</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="57">
         <f t="shared" si="4"/>
         <v>28313.603</v>
       </c>
-      <c r="P15" s="60">
+      <c r="P15" s="62">
         <v>300</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="57">
         <v>150</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="57">
         <f t="shared" si="13"/>
         <v>693.54</v>
       </c>
-      <c r="S15" s="50">
+      <c r="S15" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="57">
         <f t="shared" si="7"/>
         <v>35005.463</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="52">
         <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
@@ -4069,11 +4075,11 @@
       <c r="D16" s="11">
         <v>440</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="58">
         <f t="shared" si="0"/>
         <v>57424</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="59">
         <f t="shared" si="11"/>
         <v>-2774.16</v>
       </c>
@@ -4097,13 +4103,13 @@
         <f>J16-G$1</f>
         <v>48788.804</v>
       </c>
-      <c r="L16" s="61">
+      <c r="L16" s="63">
         <v>0.3</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="52">
         <v>2755</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="67">
         <f t="shared" si="3"/>
         <v>11881.6412</v>
       </c>
@@ -4111,17 +4117,17 @@
         <f t="shared" si="4"/>
         <v>40407.1628</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="62">
         <v>300</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="57">
         <v>150</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="57">
         <f t="shared" si="13"/>
         <v>693.54</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="52">
         <f t="shared" si="6"/>
         <v>5548.32</v>
       </c>
@@ -4134,82 +4140,82 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="17" s="51" customFormat="1" spans="1:20">
-      <c r="A17" s="51" t="s">
+    <row r="17" s="53" customFormat="1" spans="1:20">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="53">
         <v>54000</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62">
         <f>B17/12</f>
         <v>4500</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="64">
         <v>0.1</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="53">
         <v>105</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="68">
         <f>(K17*L17)*12-M17</f>
         <v>5295</v>
       </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="T17" s="60">
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="T17" s="62">
         <f>B17-N17</f>
         <v>48705</v>
       </c>
     </row>
-    <row r="18" s="51" customFormat="1" spans="1:20">
-      <c r="A18" s="51" t="s">
+    <row r="18" s="53" customFormat="1" spans="1:20">
+      <c r="A18" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="53">
         <f>E24</f>
         <v>225459.1395</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60">
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62">
         <f>B18/12</f>
         <v>18788.261625</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="64">
         <v>0.25</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="53">
         <v>1005</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="68">
         <f>(K18*L18-M18)*12</f>
         <v>44304.784875</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="T18" s="60">
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="T18" s="62">
         <f>B18-N18</f>
         <v>181154.354625</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="5:25">
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="25">
         <f>SUM(G5:G17)</f>
         <v>-21449.28</v>
@@ -4224,8 +4230,8 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="63"/>
-      <c r="N19" s="65">
+      <c r="L19" s="65"/>
+      <c r="N19" s="67">
         <f>-SUM(N5:N18)</f>
         <v>-143799.834164655</v>
       </c>
@@ -4233,7 +4239,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
-      <c r="T19" s="65">
+      <c r="T19" s="67">
         <f>SUM(T5:T18)</f>
         <v>671879.475634195</v>
       </c>
@@ -4252,7 +4258,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="N21" s="67"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -4268,7 +4274,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="N22" s="67"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
@@ -4304,7 +4310,7 @@
         <v>32</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="N23" s="67"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
@@ -4345,7 +4351,7 @@
         <f>(E24/12*25%-1005)*12</f>
         <v>44304.784875</v>
       </c>
-      <c r="N24" s="67"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
@@ -4361,7 +4367,7 @@
       <c r="F25"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="N25" s="67"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
@@ -4377,7 +4383,7 @@
       <c r="F26"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="N26" s="67"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
@@ -4393,7 +4399,7 @@
       <c r="E27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="67"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
@@ -4424,7 +4430,7 @@
       <c r="F28" s="8">
         <v>6.7911</v>
       </c>
-      <c r="N28" s="67"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
@@ -4459,7 +4465,7 @@
       <c r="L29" s="8">
         <v>11881.69</v>
       </c>
-      <c r="N29" s="67"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
@@ -4472,7 +4478,7 @@
       <c r="L30" s="8">
         <v>5295</v>
       </c>
-      <c r="N30" s="67"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
@@ -4490,7 +4496,7 @@
         <f>N17+N16</f>
         <v>17176.6412</v>
       </c>
-      <c r="N31" s="67">
+      <c r="N31" s="69">
         <f>M31-L31</f>
         <v>-0.0488000000041211</v>
       </c>
@@ -4505,7 +4511,7 @@
       <c r="E32" s="8"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="N32" s="67"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -4517,7 +4523,7 @@
       <c r="E33" s="8"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="N33" s="67"/>
+      <c r="N33" s="69"/>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
@@ -4533,7 +4539,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="N34" s="67"/>
+      <c r="N34" s="69"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -4550,7 +4556,7 @@
         <f>80000*11/12*0.95</f>
         <v>69666.6666666667</v>
       </c>
-      <c r="N35" s="67"/>
+      <c r="N35" s="69"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
@@ -4558,7 +4564,7 @@
       <c r="T35" s="25"/>
     </row>
     <row r="36" spans="14:20">
-      <c r="N36" s="67"/>
+      <c r="N36" s="69"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
@@ -4569,7 +4575,7 @@
       <c r="F37" s="8">
         <v>54000</v>
       </c>
-      <c r="N37" s="67"/>
+      <c r="N37" s="69"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
@@ -4582,7 +4588,7 @@
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="N38" s="67"/>
+      <c r="N38" s="69"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -4590,7 +4596,7 @@
       <c r="T38" s="25"/>
     </row>
     <row r="39" spans="14:20">
-      <c r="N39" s="67"/>
+      <c r="N39" s="69"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
@@ -4598,7 +4604,7 @@
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="14:20">
-      <c r="N40" s="67"/>
+      <c r="N40" s="69"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
@@ -4768,422 +4774,422 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="1" width="10.8308823529412" style="43"/>
-    <col min="2" max="2" width="10.1617647058824" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.8308823529412" style="43" customWidth="1"/>
-    <col min="4" max="4" width="9.16176470588235" style="43" customWidth="1"/>
-    <col min="5" max="5" width="13.6617647058824" style="43" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.8308823529412" style="43" customWidth="1"/>
-    <col min="8" max="9" width="10.3308823529412" style="43" customWidth="1"/>
-    <col min="10" max="10" width="13.3308823529412" style="43" customWidth="1"/>
-    <col min="11" max="11" width="13.8308823529412" style="43" customWidth="1"/>
-    <col min="12" max="12" width="5.66176470588235" style="43" customWidth="1"/>
-    <col min="13" max="13" width="8.16176470588235" style="43" customWidth="1"/>
-    <col min="14" max="14" width="12.3308823529412" style="44" customWidth="1"/>
-    <col min="15" max="15" width="14.6617647058824" style="45" customWidth="1"/>
-    <col min="16" max="16" width="11.1617647058824" style="45" customWidth="1"/>
-    <col min="17" max="18" width="11" style="45" customWidth="1"/>
-    <col min="19" max="19" width="18.1617647058824" style="46" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="43" customWidth="1"/>
-    <col min="21" max="16384" width="10.8308823529412" style="43"/>
+    <col min="1" max="1" width="10.8308823529412" style="45"/>
+    <col min="2" max="2" width="10.1617647058824" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.8308823529412" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.16176470588235" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.6617647058824" style="45" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.8308823529412" style="45" customWidth="1"/>
+    <col min="8" max="9" width="10.3308823529412" style="45" customWidth="1"/>
+    <col min="10" max="10" width="13.3308823529412" style="45" customWidth="1"/>
+    <col min="11" max="11" width="13.8308823529412" style="45" customWidth="1"/>
+    <col min="12" max="12" width="5.66176470588235" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8.16176470588235" style="45" customWidth="1"/>
+    <col min="14" max="14" width="12.3308823529412" style="46" customWidth="1"/>
+    <col min="15" max="15" width="14.6617647058824" style="47" customWidth="1"/>
+    <col min="16" max="16" width="11.1617647058824" style="47" customWidth="1"/>
+    <col min="17" max="18" width="11" style="47" customWidth="1"/>
+    <col min="19" max="19" width="18.1617647058824" style="48" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="45" customWidth="1"/>
+    <col min="21" max="16384" width="10.8308823529412" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="45">
         <v>8467</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="45">
         <f>D1*3</f>
         <v>25401</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="45">
         <v>3500</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="3" ht="15" spans="3:19">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="15:18">
-      <c r="O4" s="48"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-    </row>
-    <row r="5" s="41" customFormat="1" spans="14:14">
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" s="41" customFormat="1" spans="14:14">
-      <c r="N6" s="49"/>
-    </row>
-    <row r="7" s="41" customFormat="1" spans="14:14">
-      <c r="N7" s="49"/>
-    </row>
-    <row r="8" s="41" customFormat="1" spans="14:14">
-      <c r="N8" s="49"/>
-    </row>
-    <row r="9" s="41" customFormat="1" spans="14:14">
-      <c r="N9" s="49"/>
-    </row>
-    <row r="10" s="41" customFormat="1" spans="2:19">
-      <c r="B10" s="41" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+    </row>
+    <row r="5" s="43" customFormat="1" spans="14:14">
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" s="43" customFormat="1" spans="14:14">
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" s="43" customFormat="1" spans="14:14">
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" s="43" customFormat="1" spans="14:14">
+      <c r="N8" s="51"/>
+    </row>
+    <row r="9" s="43" customFormat="1" spans="14:14">
+      <c r="N9" s="51"/>
+    </row>
+    <row r="10" s="43" customFormat="1" spans="2:19">
+      <c r="B10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="43">
         <v>75000</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="43">
         <f>C10+D10</f>
         <v>75000</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="43">
         <f>$E$1*-0.12</f>
         <v>-3048.12</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="43">
         <v>-270.96</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="43">
         <v>-104.6</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="43">
         <v>-6.77</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="43">
         <f>E10+F10+G10+H10+I10</f>
         <v>71569.55</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="43">
         <f>J10-G$1</f>
         <v>68069.55</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="43">
         <v>0.35</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="43">
         <v>5505</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="51">
         <f>K10*L10-M10</f>
         <v>18319.3425</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="43">
         <f>J10-N10</f>
         <v>53250.2075</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="43">
         <v>150</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="43">
         <f>-2*F10</f>
         <v>6096.24</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="43">
         <v>10000</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="43">
         <f>O10+P10+Q10+R10</f>
         <v>69496.4475</v>
       </c>
     </row>
-    <row r="11" s="41" customFormat="1" spans="2:19">
-      <c r="B11" s="41" t="s">
+    <row r="11" s="43" customFormat="1" spans="2:19">
+      <c r="B11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="43">
         <v>75000</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="43">
         <f>C11+D11</f>
         <v>75000</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="43">
         <f>$E$1*-0.12</f>
         <v>-3048.12</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="43">
         <v>-270.96</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="43">
         <v>-104.6</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="43">
         <v>-6.77</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="43">
         <f>E11+F11+G11+H11+I11</f>
         <v>71569.55</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="43">
         <f>J11-G$1</f>
         <v>68069.55</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="43">
         <v>0.35</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="43">
         <v>5505</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="51">
         <f>K11*L11-M11</f>
         <v>18319.3425</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="43">
         <f>J11-N11</f>
         <v>53250.2075</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="43">
         <v>150</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="43">
         <f>-2*F11</f>
         <v>6096.24</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="43">
         <v>10000</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="43">
         <f>O11+P11+Q11+R11</f>
         <v>69496.4475</v>
       </c>
     </row>
-    <row r="12" s="41" customFormat="1" spans="2:19">
-      <c r="B12" s="41" t="s">
+    <row r="12" s="43" customFormat="1" spans="2:19">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="43">
         <v>75000</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="43">
         <f>C12+D12</f>
         <v>75000</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="43">
         <f>$E$1*-0.12</f>
         <v>-3048.12</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="43">
         <v>-270.96</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="43">
         <v>-104.6</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="43">
         <v>-6.77</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="43">
         <f>E12+F12+G12+H12+I12</f>
         <v>71569.55</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="43">
         <f>J12-H$1</f>
         <v>66569.55</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="43">
         <v>0.35</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="43">
         <v>7160</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="51">
         <f>K12*L12-M12</f>
         <v>16139.3425</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="43">
         <f>J12-N12</f>
         <v>55430.2075</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="43">
         <v>150</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="43">
         <f>-2*F12</f>
         <v>6096.24</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="43">
         <v>10000</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="43">
         <f>O12+P12+Q12+R12</f>
         <v>71676.4475</v>
       </c>
     </row>
-    <row r="13" s="41" customFormat="1" spans="14:14">
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" s="42" customFormat="1"/>
-    <row r="15" s="42" customFormat="1"/>
-    <row r="16" s="42" customFormat="1" spans="3:3">
-      <c r="C16" s="47"/>
-    </row>
-    <row r="17" s="42" customFormat="1"/>
-    <row r="18" s="42" customFormat="1" spans="1:20">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" s="42" customFormat="1" spans="1:20">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="43"/>
+    <row r="13" s="43" customFormat="1" spans="14:14">
+      <c r="N13" s="51"/>
+    </row>
+    <row r="14" s="44" customFormat="1"/>
+    <row r="15" s="44" customFormat="1"/>
+    <row r="16" s="44" customFormat="1" spans="3:3">
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" s="44" customFormat="1"/>
+    <row r="18" s="44" customFormat="1" spans="1:20">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" s="44" customFormat="1" spans="1:20">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="45">
         <v>40000</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="45">
         <v>9</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="45">
         <v>7</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="45">
         <f>D21*C21*B21</f>
         <v>2520000</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="45">
         <f>E21/4</f>
         <v>630000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <f>B21*3.5</f>
         <v>140000</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="45">
         <v>5</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="45">
         <v>6.3</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="45">
         <f>D22*C22*B22</f>
         <v>4410000</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="45">
         <f>E22/4</f>
         <v>1102500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="45">
         <f>D10*16</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="43">
+      <c r="F24" s="45">
         <f>T10*12</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="43">
+      <c r="F27" s="45">
         <f>F23+F22+F21+F24</f>
         <v>2932500</v>
       </c>
@@ -5198,10 +5204,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD23"/>
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47058823529412" defaultRowHeight="14.8"/>
@@ -5213,7 +5219,7 @@
     <col min="6" max="6" width="12.8235294117647" style="36" customWidth="1"/>
     <col min="7" max="8" width="8.47058823529412" style="36"/>
     <col min="9" max="9" width="8.47058823529412" style="36" customWidth="1"/>
-    <col min="10" max="10" width="25.8602941176471" style="36" customWidth="1"/>
+    <col min="10" max="10" width="9.11764705882353" style="36" customWidth="1"/>
     <col min="11" max="11" width="11.8823529411765" style="36" customWidth="1"/>
     <col min="12" max="12" width="8.47058823529412" style="36" customWidth="1"/>
     <col min="13" max="16380" width="8.47058823529412" style="36"/>
@@ -5244,9 +5250,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" s="36" customFormat="1"/>
-    <row r="5" s="36" customFormat="1"/>
-    <row r="6" s="36" customFormat="1" spans="3:11">
+    <row r="4" s="36" customFormat="1" ht="14"/>
+    <row r="5" s="36" customFormat="1" ht="14"/>
+    <row r="6" s="36" customFormat="1" ht="14" spans="3:11">
       <c r="C6" s="36" t="s">
         <v>43</v>
       </c>
@@ -5259,11 +5265,9 @@
       <c r="F6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="36"/>
       <c r="H6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="36"/>
       <c r="J6" s="36" t="s">
         <v>10</v>
       </c>
@@ -5346,16 +5350,20 @@
         <v>65713</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="1" ht="15.2" spans="2:11">
+    <row r="9" s="36" customFormat="1" ht="15.2" spans="1:11">
+      <c r="A9" s="36">
+        <v>85000</v>
+      </c>
       <c r="B9" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="38">
-        <v>75000</v>
+        <f>A9</f>
+        <v>85000</v>
       </c>
       <c r="D9" s="36">
         <f t="shared" si="2"/>
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" si="3"/>
@@ -5371,35 +5379,32 @@
       </c>
       <c r="H9" s="36">
         <f t="shared" si="0"/>
-        <v>187710</v>
+        <v>197710</v>
       </c>
       <c r="I9" s="39">
         <f>ROUND(MAX(H9*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>20622</v>
+        <v>22622</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="5"/>
-        <v>10628</v>
+        <v>12628</v>
       </c>
       <c r="K9" s="36">
         <f t="shared" si="1"/>
-        <v>60942</v>
-      </c>
-    </row>
-    <row r="10" s="36" customFormat="1" ht="15.2" spans="1:11">
-      <c r="A10" s="36">
-        <v>85000</v>
-      </c>
+        <v>68942</v>
+      </c>
+    </row>
+    <row r="10" s="36" customFormat="1" ht="15.2" spans="2:11">
       <c r="B10" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="38">
-        <f>A10</f>
+        <f>C9</f>
         <v>85000</v>
       </c>
       <c r="D10" s="36">
         <f t="shared" si="2"/>
-        <v>310000</v>
+        <v>320000</v>
       </c>
       <c r="E10" s="36">
         <f t="shared" si="3"/>
@@ -5415,11 +5420,11 @@
       </c>
       <c r="H10" s="36">
         <f t="shared" si="0"/>
-        <v>260280</v>
+        <v>270280</v>
       </c>
       <c r="I10" s="39">
         <f>ROUND(MAX(H10*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>35136</v>
+        <v>37136</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="5"/>
@@ -5440,7 +5445,7 @@
       </c>
       <c r="D11" s="36">
         <f t="shared" si="2"/>
-        <v>395000</v>
+        <v>405000</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="3"/>
@@ -5456,19 +5461,19 @@
       </c>
       <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>332850</v>
+        <v>342850</v>
       </c>
       <c r="I11" s="39">
         <f>ROUND(MAX(H11*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>51292.5</v>
+        <v>53792.5</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="5"/>
-        <v>16156.5</v>
+        <v>16656.5</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" si="1"/>
-        <v>65413.5</v>
+        <v>64913.5</v>
       </c>
     </row>
     <row r="12" s="36" customFormat="1" ht="15.2" spans="2:11">
@@ -5481,7 +5486,7 @@
       </c>
       <c r="D12" s="36">
         <f t="shared" si="2"/>
-        <v>480000</v>
+        <v>490000</v>
       </c>
       <c r="E12" s="36">
         <f t="shared" si="3"/>
@@ -5497,11 +5502,11 @@
       </c>
       <c r="H12" s="36">
         <f t="shared" si="0"/>
-        <v>405420</v>
+        <v>415420</v>
       </c>
       <c r="I12" s="39">
         <f>ROUND(MAX(H12*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>69435</v>
+        <v>71935</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" si="5"/>
@@ -5522,7 +5527,7 @@
       </c>
       <c r="D13" s="36">
         <f t="shared" si="2"/>
-        <v>565000</v>
+        <v>575000</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="3"/>
@@ -5538,19 +5543,19 @@
       </c>
       <c r="H13" s="36">
         <f t="shared" si="0"/>
-        <v>477990</v>
+        <v>487990</v>
       </c>
       <c r="I13" s="39">
         <f>ROUND(MAX(H13*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>90477</v>
+        <v>93477</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" si="5"/>
-        <v>21042</v>
+        <v>21542</v>
       </c>
       <c r="K13" s="36">
         <f t="shared" si="1"/>
-        <v>60528</v>
+        <v>60028</v>
       </c>
     </row>
     <row r="14" s="36" customFormat="1" ht="15.2" spans="2:11">
@@ -5563,7 +5568,7 @@
       </c>
       <c r="D14" s="36">
         <f t="shared" si="2"/>
-        <v>650000</v>
+        <v>660000</v>
       </c>
       <c r="E14" s="36">
         <f t="shared" si="3"/>
@@ -5579,11 +5584,11 @@
       </c>
       <c r="H14" s="36">
         <f t="shared" si="0"/>
-        <v>550560</v>
+        <v>560560</v>
       </c>
       <c r="I14" s="39">
         <f>ROUND(MAX(H14*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>112248</v>
+        <v>115248</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="5"/>
@@ -5604,7 +5609,7 @@
       </c>
       <c r="D15" s="36">
         <f t="shared" si="2"/>
-        <v>735000</v>
+        <v>745000</v>
       </c>
       <c r="E15" s="36">
         <f t="shared" si="3"/>
@@ -5620,11 +5625,11 @@
       </c>
       <c r="H15" s="36">
         <f t="shared" si="0"/>
-        <v>623130</v>
+        <v>633130</v>
       </c>
       <c r="I15" s="39">
         <f>ROUND(MAX(H15*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>134019</v>
+        <v>137019</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" si="5"/>
@@ -5645,7 +5650,7 @@
       </c>
       <c r="D16" s="36">
         <f t="shared" si="2"/>
-        <v>820000</v>
+        <v>830000</v>
       </c>
       <c r="E16" s="36">
         <f t="shared" si="3"/>
@@ -5661,19 +5666,19 @@
       </c>
       <c r="H16" s="36">
         <f t="shared" si="0"/>
-        <v>695700</v>
+        <v>705700</v>
       </c>
       <c r="I16" s="39">
         <f>ROUND(MAX(H16*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>157575</v>
+        <v>161075</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" si="5"/>
-        <v>23556</v>
+        <v>24056</v>
       </c>
       <c r="K16" s="36">
         <f t="shared" si="1"/>
-        <v>58014</v>
+        <v>57514</v>
       </c>
     </row>
     <row r="17" s="36" customFormat="1" ht="15.2" spans="2:11">
@@ -5686,7 +5691,7 @@
       </c>
       <c r="D17" s="36">
         <f t="shared" si="2"/>
-        <v>905000</v>
+        <v>915000</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="3"/>
@@ -5702,11 +5707,11 @@
       </c>
       <c r="H17" s="36">
         <f t="shared" si="0"/>
-        <v>768270</v>
+        <v>778270</v>
       </c>
       <c r="I17" s="39">
         <f>ROUND(MAX(H17*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>182974.5</v>
+        <v>186474.5</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="5"/>
@@ -5727,7 +5732,7 @@
       </c>
       <c r="D18" s="36">
         <f t="shared" si="2"/>
-        <v>990000</v>
+        <v>1000000</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="3"/>
@@ -5743,11 +5748,11 @@
       </c>
       <c r="H18" s="36">
         <f t="shared" si="0"/>
-        <v>840840</v>
+        <v>850840</v>
       </c>
       <c r="I18" s="39">
         <f>ROUND(MAX(H18*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>208374</v>
+        <v>211874</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="5"/>
@@ -5758,31 +5763,31 @@
         <v>56170.5</v>
       </c>
     </row>
-    <row r="19" s="36" customFormat="1" spans="10:16381">
-      <c r="J19" s="36" t="s">
+    <row r="19" s="36" customFormat="1" ht="28" spans="10:16381">
+      <c r="J19" s="40" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="36">
         <f>K20/12</f>
-        <v>61705.5</v>
+        <v>62247.1666666667</v>
       </c>
       <c r="XFA19" s="37"/>
     </row>
     <row r="20" s="36" customFormat="1" ht="22" spans="3:16384">
       <c r="C20" s="36">
         <f>SUM(C7:C18)</f>
-        <v>990000</v>
-      </c>
-      <c r="J20" s="40" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="42">
         <f>SUM(K7:K18)</f>
-        <v>740466</v>
+        <v>746966</v>
       </c>
       <c r="L20" s="36">
-        <f>C20</f>
-        <v>990000</v>
+        <f>85000*12</f>
+        <v>1020000</v>
       </c>
       <c r="XFA20" s="37"/>
       <c r="XFB20" s="37"/>
@@ -5793,7 +5798,6 @@
       <c r="J21" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="36"/>
       <c r="L21" s="36">
         <v>340000</v>
       </c>
@@ -5806,7 +5810,6 @@
       <c r="J22" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="36"/>
       <c r="L22" s="36">
         <v>120000</v>
       </c>
@@ -5819,7 +5822,6 @@
       <c r="J23" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="36"/>
       <c r="L23" s="36">
         <v>72000</v>
       </c>
@@ -5827,6 +5829,12 @@
       <c r="XFB23" s="37"/>
       <c r="XFC23" s="37"/>
       <c r="XFD23" s="37"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="36">
+        <f>SUM(L20:L23)</f>
+        <v>1552000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/life/tax2.xlsx
+++ b/life/tax2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16140" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28000" windowHeight="13140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -1476,15 +1476,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1585,15 +1585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1601,56 +1602,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1668,8 +1622,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,38 +1715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1778,6 +1778,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1790,163 +1946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,8 +1987,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,45 +2058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2075,109 +2075,130 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2186,31 +2207,10 @@
     <xf numFmtId="181" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2234,7 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2243,26 +2243,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2296,21 +2296,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5207,7 +5207,7 @@
   <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47058823529412" defaultRowHeight="14.8"/>
@@ -5799,7 +5799,11 @@
         <v>28</v>
       </c>
       <c r="L21" s="36">
-        <v>340000</v>
+        <f>C18*M21</f>
+        <v>680000</v>
+      </c>
+      <c r="M21" s="36">
+        <v>8</v>
       </c>
       <c r="XFA21" s="37"/>
       <c r="XFB21" s="37"/>
@@ -5833,7 +5837,7 @@
     <row r="25" spans="12:12">
       <c r="L25" s="36">
         <f>SUM(L20:L23)</f>
-        <v>1552000</v>
+        <v>1892000</v>
       </c>
     </row>
   </sheetData>
